--- a/homework_data.xlsx
+++ b/homework_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,7 +849,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>72602</t>
+          <t>72604</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Checking Summer Holiday Workbook</t>
+          <t>步步升p.4-5</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -880,7 +880,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>72604</t>
+          <t>72602</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>步步升p.4-5</t>
+          <t>Checking Summer Holiday Workbook</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -973,7 +973,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>72683</t>
+          <t>72634</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>WS Pt.4</t>
+          <t>Textbook p.15 (1-4)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1004,7 +1004,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>記事6421</t>
+          <t>72683</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>明天帶成語詞典</t>
+          <t>WS Pt.4</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1035,7 +1035,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>72642</t>
+          <t>72639</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1053,12 +1053,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>作業P.1</t>
+          <t>CW06</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1097,7 +1097,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>72639</t>
+          <t>72642</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CW06</t>
+          <t>作業P.1</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>72634</t>
+          <t>記事6421</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Textbook p.15 (1-4)</t>
+          <t>明天帶成語詞典</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1159,12 +1159,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>72704</t>
+          <t>72684</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1172,17 +1172,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>單數學號</t>
+          <t>全班</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>其他z_etc</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Using ELA Book 2 page 11, Record a 2 minute introduction introducing yourself and upload it here. Use the recording device on your ipad.</t>
+          <t>WB 1A 01</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1190,7 +1190,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>72706</t>
+          <t>記事6449</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1208,12 +1208,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>All the TSA Listening Exercises</t>
+          <t>粘貼成語表至詞典</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1252,7 +1252,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>72705</t>
+          <t>72706</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Grammar WS P.1-2</t>
+          <t>All the TSA Listening Exercises</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1283,12 +1283,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>72684</t>
+          <t>72705</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1301,12 +1301,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>WB 1A 01</t>
+          <t>Grammar WS P.1-2</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1314,7 +1314,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>記事6449</t>
+          <t>72704</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1327,17 +1327,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>全班</t>
+          <t>單數學號</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>其他z_etc</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>粘貼成語表至詞典</t>
+          <t>Using ELA Book 2 page 11, Record a 2 minute introduction introducing yourself and upload it here. Use the recording device on your ipad.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1407,7 +1407,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>72760</t>
+          <t>72745</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Listening - Skills Check 1</t>
+          <t>Finish HW01 as PDF</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1438,7 +1438,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>72754</t>
+          <t>72760</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>歷史 -- HIST</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>明天交介紹</t>
+          <t>Listening - Skills Check 1</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1469,7 +1469,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>72753</t>
+          <t>72754</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>歷史 -- HIST</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CW07+08</t>
+          <t>明天交介紹</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1500,7 +1500,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>72746</t>
+          <t>72753</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1518,12 +1518,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>筆記及習作</t>
+          <t>CW07+08</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1531,7 +1531,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>72745</t>
+          <t>72746</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Finish HW01 as PDF</t>
+          <t>筆記及習作</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1562,7 +1562,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>72843</t>
+          <t>72845</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>中文筆記實作</t>
+          <t>書本P.10</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1593,7 +1593,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>72844</t>
+          <t>72843</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1611,12 +1611,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>歷史 -- HIST</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>整個file</t>
+          <t>中文筆記實作</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>72845</t>
+          <t>72846</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>書本P.10</t>
+          <t>工作紙P.2</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1655,7 +1655,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>72846</t>
+          <t>72844</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>歷史 -- HIST</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>工作紙P.2</t>
+          <t>整個file</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1717,7 +1717,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>72789</t>
+          <t>記事6480</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Grammar Workbook P.16-17</t>
+          <t>Bring Listening Book</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1748,7 +1748,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>記事6480</t>
+          <t>72790</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bring Listening Book</t>
+          <t>Complete VLE Exercise</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1779,7 +1779,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>72790</t>
+          <t>72789</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Complete VLE Exercise</t>
+          <t>Grammar Workbook P.16-17</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2058,7 +2058,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>73091</t>
+          <t>73074</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2076,12 +2076,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>作業 p.4-5改</t>
+          <t>30/9 Dictation</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2089,7 +2089,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>73074</t>
+          <t>73075</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>30/9 Dictation</t>
+          <t>Dict Corr</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2120,7 +2120,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>73075</t>
+          <t>73091</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2138,12 +2138,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Dict Corr</t>
+          <t>作業 p.4-5改</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2151,7 +2151,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>73089</t>
+          <t>73092</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>CW12 #1.c 2.c 3.c 4.c 17.c</t>
+          <t>書p.21</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2182,7 +2182,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>73092</t>
+          <t>73089</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2200,12 +2200,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>書p.21</t>
+          <t>CW12 #1.c 2.c 3.c 4.c 17.c</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2213,12 +2213,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>記事6479</t>
+          <t>73095</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2231,12 +2231,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>普話 -- PTH</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Form Test 1</t>
+          <t>抄書 28 7</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2244,12 +2244,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>73095</t>
+          <t>記事6479</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2262,12 +2262,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>普話 -- PTH</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>抄書 28 7</t>
+          <t>Form Test 1</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2368,12 +2368,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>73076</t>
+          <t>記事6462</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2386,12 +2386,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>WB p.8-p.11</t>
+          <t>成語小測（1-20）+創默《八陣圖》</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2399,12 +2399,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>記事6462</t>
+          <t>73076</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2417,12 +2417,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>成語小測（1-20）+創默《八陣圖》</t>
+          <t>WB p.8-p.11</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2554,7 +2554,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>記事6545</t>
+          <t>記事6546</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Solid Memeroy</t>
+          <t>Bring Newspaper</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2585,7 +2585,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>記事6546</t>
+          <t>記事6545</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bring Newspaper</t>
+          <t>Solid Memeroy</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2709,12 +2709,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>記事6512</t>
+          <t>73334</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>共閲圖書匯報+個人匯報</t>
+          <t>步步升2</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2740,12 +2740,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>73334</t>
+          <t>記事6512</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>步步升2</t>
+          <t>共閲圖書匯報+個人匯報</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -3019,7 +3019,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>73523</t>
+          <t>73522</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Grammar WB p.23</t>
+          <t>Notebook</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -3112,7 +3112,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>73522</t>
+          <t>73523</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Notebook</t>
+          <t>Grammar WB p.23</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -3484,7 +3484,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>73679</t>
+          <t>73676</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3502,12 +3502,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>詞解工作紙</t>
+          <t>Pre-Vocab Quiz Corr</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -3515,7 +3515,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>73676</t>
+          <t>73679</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3533,12 +3533,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Pre-Vocab Quiz Corr</t>
+          <t>詞解工作紙</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
@@ -3825,7 +3825,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>73822</t>
+          <t>73823</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>FT 1&amp;2 Paper sign+corr</t>
+          <t>LIFE p.12</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
@@ -3856,7 +3856,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>73823</t>
+          <t>73822</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3874,12 +3874,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>LIFE p.12</t>
+          <t>FT 1&amp;2 Paper sign+corr</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
@@ -3887,12 +3887,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>73824</t>
+          <t>73886</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -3905,12 +3905,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>FT Revison</t>
+          <t>CW 23</t>
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
@@ -3918,12 +3918,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>73886</t>
+          <t>73824</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -3936,12 +3936,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>CW 23</t>
+          <t>FT Revison</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
@@ -4011,7 +4011,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>73922</t>
+          <t>73924</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4029,12 +4029,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>CW24</t>
+          <t>Bring Fact File</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>73924</t>
+          <t>73922</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4060,12 +4060,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Bring Fact File</t>
+          <t>CW24</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
@@ -4476,7 +4476,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>74182</t>
+          <t>記事6700</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4494,12 +4494,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>普話 -- PTH</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>第一次語文知識驗（VLE）</t>
+          <t>書p.41</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
@@ -4507,12 +4507,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>74190</t>
+          <t>記事6699</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2025-11-11</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>HW 3A</t>
+          <t>HW3A</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
@@ -4569,7 +4569,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>記事6699</t>
+          <t>74174</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4587,12 +4587,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>HW3A</t>
+          <t>LIFE Text Book p.23</t>
         </is>
       </c>
       <c r="G134" t="inlineStr"/>
@@ -4600,7 +4600,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>記事6700</t>
+          <t>74182</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4618,12 +4618,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>普話 -- PTH</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>書p.41</t>
+          <t>第一次語文知識驗（VLE）</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
@@ -4631,12 +4631,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>74174</t>
+          <t>74190</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-11-11</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -4649,12 +4649,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>LIFE Text Book p.23</t>
+          <t>HW 3A</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
@@ -4662,7 +4662,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>記事6707</t>
+          <t>74211</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4680,12 +4680,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Bring LIFE Booklet</t>
+          <t>CW30</t>
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
@@ -4724,7 +4724,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>74211</t>
+          <t>記事6707</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4742,12 +4742,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>CW30</t>
+          <t>Bring LIFE Booklet</t>
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>74240</t>
+          <t>74244</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4773,12 +4773,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Textbook p.91</t>
+          <t>Grammar WB p.58</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
@@ -4786,7 +4786,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>74244</t>
+          <t>74242</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4804,12 +4804,12 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Grammar WB p.58</t>
+          <t>明成語小測 41-60 + 創默 《憫農 · 其二》</t>
         </is>
       </c>
       <c r="G141" t="inlineStr"/>
@@ -4817,7 +4817,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>74242</t>
+          <t>74239</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4835,12 +4835,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>明成語小測 41-60 + 創默 《憫農 · 其二》</t>
+          <t>Textbook p.91</t>
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
@@ -4848,7 +4848,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>74239</t>
+          <t>74240</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4910,12 +4910,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>記事6714</t>
+          <t>74237</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-11-12</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -4928,12 +4928,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Grammar Test</t>
+          <t>WB p.33-35</t>
         </is>
       </c>
       <c r="G145" t="inlineStr"/>
@@ -4941,7 +4941,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>74282</t>
+          <t>記事6717</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4959,12 +4959,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Gramma WB p.59</t>
+          <t>作業 p.18-20</t>
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>記事6715</t>
+          <t>記事6716</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4990,24 +4990,24 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Notebook</t>
+          <t>明共閱圖書測驗及個人匯報</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Future Tense</t>
+          <t>帶iPad及共閱圖書</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>74281</t>
+          <t>記事6715</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5025,20 +5025,24 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>WS 5B p.2.3.5.6</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr"/>
+          <t>Notebook</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Future Tense</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>記事6717</t>
+          <t>記事6714</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5056,12 +5060,12 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>作業 p.18-20</t>
+          <t>Grammar Test</t>
         </is>
       </c>
       <c r="G149" t="inlineStr"/>
@@ -5069,12 +5073,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>74237</t>
+          <t>74282</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2025-11-12</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -5087,12 +5091,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>WB p.33-35</t>
+          <t>Gramma WB p.59</t>
         </is>
       </c>
       <c r="G150" t="inlineStr"/>
@@ -5100,7 +5104,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>記事6716</t>
+          <t>74281</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5118,19 +5122,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>明共閱圖書測驗及個人匯報</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>帶iPad及共閱圖書</t>
-        </is>
-      </c>
+          <t>WS 5B p.2.3.5.6</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5162,6 +5162,138 @@
         </is>
       </c>
       <c r="G152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>74331</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>45976</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>英文 -- ENG</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Raz-Kids</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Dead Line 17/12</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>74330</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="n">
+        <v>45976</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>英文 -- ENG</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Solid Memory</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>1 Exercise 1 Day</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>74332</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C155" s="2" t="n">
+        <v>45976</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>英文 -- ENG</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Sentence Pattern WS</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>74329</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="n">
+        <v>45976</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>數學 -- MATH</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>CW32</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/homework_data.xlsx
+++ b/homework_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1717,7 +1717,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>記事6480</t>
+          <t>72790</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bring Listening Book</t>
+          <t>Complete VLE Exercise</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1748,7 +1748,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>72790</t>
+          <t>記事6480</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Complete VLE Exercise</t>
+          <t>Bring Listening Book</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2027,7 +2027,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>73073</t>
+          <t>73074</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2045,12 +2045,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Writing WS p.3</t>
+          <t>30/9 Dictation</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2058,7 +2058,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>73074</t>
+          <t>73073</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2076,12 +2076,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>30/9 Dictation</t>
+          <t>Writing WS p.3</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2368,12 +2368,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>記事6462</t>
+          <t>73076</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2386,12 +2386,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>成語小測（1-20）+創默《八陣圖》</t>
+          <t>WB p.8-p.11</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2399,12 +2399,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>73076</t>
+          <t>記事6462</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2417,12 +2417,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>WB p.8-p.11</t>
+          <t>成語小測（1-20）+創默《八陣圖》</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2709,12 +2709,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>73334</t>
+          <t>記事6512</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>步步升2</t>
+          <t>共閲圖書匯報+個人匯報</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2740,12 +2740,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>記事6512</t>
+          <t>73334</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>共閲圖書匯報+個人匯報</t>
+          <t>步步升2</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2802,7 +2802,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>73442</t>
+          <t>73445</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2820,12 +2820,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>CW18</t>
+          <t>Reading Comprehension p.2-5</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2833,7 +2833,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>73445</t>
+          <t>73442</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2851,12 +2851,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Reading Comprehension p.2-5</t>
+          <t>CW18</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2895,7 +2895,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>記事6607</t>
+          <t>73483</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2913,12 +2913,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>基教 -- RSC</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>WS (submit t lunch)</t>
+          <t>Tmr Form Test</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>記事6600</t>
+          <t>73484</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2944,12 +2944,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Adjective-preposition phrase WS p.2,3</t>
+          <t>CW19</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -2957,7 +2957,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>73484</t>
+          <t>記事6607</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2975,12 +2975,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>基教 -- RSC</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>CW19</t>
+          <t>WS (submit t lunch)</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -2988,7 +2988,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>73483</t>
+          <t>記事6600</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3006,12 +3006,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Tmr Form Test</t>
+          <t>Adjective-preposition phrase WS p.2,3</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -3019,7 +3019,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>73522</t>
+          <t>記事6612</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3037,12 +3037,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Notebook</t>
+          <t>HW2B</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -3050,7 +3050,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>記事6612</t>
+          <t>記事6611</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3068,12 +3068,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>HW2B</t>
+          <t>Pre Vocab Quiz</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -3081,7 +3081,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>記事6611</t>
+          <t>73522</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Pre Vocab Quiz</t>
+          <t>Notebook</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -3205,12 +3205,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>73609</t>
+          <t>記事6599</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3223,12 +3223,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>CW21</t>
+          <t>Vocab Quiz</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -3236,12 +3236,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>73610</t>
+          <t>73446</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3254,12 +3254,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Grammar WB p.24-25</t>
+          <t>做書p.65</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3267,12 +3267,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>73446</t>
+          <t>記事6634</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3285,12 +3285,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>做書p.65</t>
+          <t>Bring a glue</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -3298,12 +3298,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>記事6599</t>
+          <t>73610</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Vocab Quiz</t>
+          <t>Grammar WB p.24-25</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -3329,7 +3329,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>記事6634</t>
+          <t>73609</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3347,12 +3347,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Bring a glue</t>
+          <t>CW21</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -3360,12 +3360,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>73678</t>
+          <t>73708</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -3378,12 +3378,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>WS連File</t>
+          <t>CW22</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -3391,7 +3391,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>73708</t>
+          <t>73709</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3422,12 +3422,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>73709</t>
+          <t>73653</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -3453,7 +3453,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>73653</t>
+          <t>73678</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3471,12 +3471,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>CW22</t>
+          <t>WS連File</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -3577,12 +3577,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>73673</t>
+          <t>73756</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -3595,12 +3595,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>WB p.13 17 19</t>
+          <t>作業</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
@@ -3639,12 +3639,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>73756</t>
+          <t>73673</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -3657,12 +3657,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>作業</t>
+          <t>WB p.13 17 19</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
@@ -3670,7 +3670,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>73772</t>
+          <t>73767</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3688,12 +3688,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Wed Dict 7 TUE Dict 8</t>
+          <t>Grammar WB p.100-101</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
@@ -3701,7 +3701,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>73767</t>
+          <t>73766</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3719,12 +3719,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>其他z_etc</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Grammar WB p.100-101</t>
+          <t>Record 2mins presentation in VLE</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
@@ -3732,7 +3732,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>73766</t>
+          <t>73771</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3750,12 +3750,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>其他z_etc</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Record 2mins presentation in VLE</t>
+          <t>筆記工作紙及詞解工作紙</t>
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
@@ -3763,7 +3763,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>73771</t>
+          <t>73765</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>筆記工作紙及詞解工作紙</t>
+          <t>Lesson WS 3B</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -3794,7 +3794,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>73765</t>
+          <t>73772</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Lesson WS 3B</t>
+          <t>Wed Dict 7 TUE Dict 8</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
@@ -3887,12 +3887,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>73886</t>
+          <t>73824</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -3905,12 +3905,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>CW 23</t>
+          <t>FT Revison</t>
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
@@ -3918,12 +3918,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>73824</t>
+          <t>73886</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -3936,12 +3936,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>FT Revison</t>
+          <t>CW 23</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
@@ -3980,7 +3980,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>73925</t>
+          <t>73926</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3998,12 +3998,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>習作題工作紙</t>
+          <t>L7 WS 連File</t>
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
@@ -4011,7 +4011,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>73924</t>
+          <t>73925</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4029,12 +4029,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Bring Fact File</t>
+          <t>習作題工作紙</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
@@ -4104,7 +4104,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>73926</t>
+          <t>73924</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4122,12 +4122,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>L7 WS 連File</t>
+          <t>Bring Fact File</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
@@ -4476,7 +4476,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>記事6700</t>
+          <t>74182</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4494,12 +4494,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>普話 -- PTH</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>書p.41</t>
+          <t>第一次語文知識驗（VLE）</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
@@ -4507,7 +4507,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>記事6699</t>
+          <t>74174</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4525,12 +4525,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>HW3A</t>
+          <t>LIFE Text Book p.23</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
@@ -4538,12 +4538,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>記事6698</t>
+          <t>74190</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-11-11</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -4556,12 +4556,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>明日圖書課，自行集隊（12:55）</t>
+          <t>HW 3A</t>
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
@@ -4569,7 +4569,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>74174</t>
+          <t>記事6699</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4587,12 +4587,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>LIFE Text Book p.23</t>
+          <t>HW3A</t>
         </is>
       </c>
       <c r="G134" t="inlineStr"/>
@@ -4600,7 +4600,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>74182</t>
+          <t>記事6700</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4618,12 +4618,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>普話 -- PTH</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>第一次語文知識驗（VLE）</t>
+          <t>書p.41</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
@@ -4631,12 +4631,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>74190</t>
+          <t>記事6698</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2025-11-11</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -4649,12 +4649,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>HW 3A</t>
+          <t>明日圖書課，自行集隊（12:55）</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
@@ -4662,7 +4662,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>74211</t>
+          <t>記事6707</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4680,12 +4680,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>CW30</t>
+          <t>Bring LIFE Booklet</t>
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
@@ -4724,7 +4724,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>記事6707</t>
+          <t>74211</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4742,12 +4742,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Bring LIFE Booklet</t>
+          <t>CW30</t>
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
@@ -4910,12 +4910,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>74237</t>
+          <t>74278</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2025-11-12</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -4928,12 +4928,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>普話 -- PTH</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>WB p.33-35</t>
+          <t>聆聽測驗二(4/11)交</t>
         </is>
       </c>
       <c r="G145" t="inlineStr"/>
@@ -4941,7 +4941,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>記事6717</t>
+          <t>74281</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4959,12 +4959,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>作業 p.18-20</t>
+          <t>WS 5B p.2.3.5.6</t>
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>記事6716</t>
+          <t>74282</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4990,24 +4990,20 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>明共閱圖書測驗及個人匯報</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>帶iPad及共閱圖書</t>
-        </is>
-      </c>
+          <t>Gramma WB p.59</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>記事6715</t>
+          <t>記事6714</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5030,19 +5026,15 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Notebook</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>Future Tense</t>
-        </is>
-      </c>
+          <t>Grammar Test</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>記事6714</t>
+          <t>記事6716</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5060,20 +5052,24 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Grammar Test</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr"/>
+          <t>明共閱圖書測驗及個人匯報</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>帶iPad及共閱圖書</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>74282</t>
+          <t>記事6717</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5091,12 +5087,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Gramma WB p.59</t>
+          <t>作業 p.18-20</t>
         </is>
       </c>
       <c r="G150" t="inlineStr"/>
@@ -5104,12 +5100,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>74281</t>
+          <t>74237</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-11-12</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -5122,12 +5118,12 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>WS 5B p.2.3.5.6</t>
+          <t>WB p.33-35</t>
         </is>
       </c>
       <c r="G151" t="inlineStr"/>
@@ -5135,7 +5131,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>74278</t>
+          <t>記事6715</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5153,20 +5149,24 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>普話 -- PTH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>聆聽測驗二(4/11)交</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr"/>
+          <t>Notebook</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Future Tense</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>74331</t>
+          <t>74332</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5189,19 +5189,15 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Raz-Kids</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>Dead Line 17/12</t>
-        </is>
-      </c>
+          <t>Sentence Pattern WS</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>74330</t>
+          <t>74331</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5224,19 +5220,19 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Solid Memory</t>
+          <t>Raz-Kids</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>1 Exercise 1 Day</t>
+          <t>Dead Line 17/12</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>74332</t>
+          <t>74330</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5259,10 +5255,14 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Sentence Pattern WS</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr"/>
+          <t>Solid Memory</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>1 Exercise 1 Day</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5294,6 +5294,138 @@
         </is>
       </c>
       <c r="G156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>74347</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C157" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>公經社 -- CES</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>評分功課</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>連file</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>74349</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>中文 -- CHIN</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>話劇</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>74348</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>中文 -- CHIN</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>步步升</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>74345</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>公經社 -- CES</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>級測</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>放學後（40mins）</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/homework_data.xlsx
+++ b/homework_data.xlsx
@@ -3980,7 +3980,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>73926</t>
+          <t>73925</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3998,12 +3998,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>L7 WS 連File</t>
+          <t>習作題工作紙</t>
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
@@ -4011,7 +4011,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>73925</t>
+          <t>73926</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4029,12 +4029,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>習作題工作紙</t>
+          <t>L7 WS 連File</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
@@ -5166,7 +5166,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>74332</t>
+          <t>74330</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="C153" s="2" t="n">
-        <v>45976</v>
+        <v>45978</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -5189,15 +5189,19 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Sentence Pattern WS</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr"/>
+          <t>Solid Memory</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>1 Exercise 1 Day</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>74331</t>
+          <t>74349</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5206,7 +5210,7 @@
         </is>
       </c>
       <c r="C154" s="2" t="n">
-        <v>45976</v>
+        <v>45978</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -5215,24 +5219,20 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Raz-Kids</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>Dead Line 17/12</t>
-        </is>
-      </c>
+          <t>木蘭辭話劇</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>74330</t>
+          <t>74348</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5241,7 +5241,7 @@
         </is>
       </c>
       <c r="C155" s="2" t="n">
-        <v>45976</v>
+        <v>45978</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -5250,24 +5250,20 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Solid Memory</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>1 Exercise 1 Day</t>
-        </is>
-      </c>
+          <t>步步升3</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>74329</t>
+          <t>74347</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5276,7 +5272,7 @@
         </is>
       </c>
       <c r="C156" s="2" t="n">
-        <v>45976</v>
+        <v>45978</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -5285,20 +5281,24 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>CW32</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr"/>
+          <t>評分功課</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>連file</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>74347</t>
+          <t>74332</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5316,24 +5316,20 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>評分功課</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>連file</t>
-        </is>
-      </c>
+          <t>Sentence Pattern WS</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>74349</t>
+          <t>74329</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5351,12 +5347,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>話劇</t>
+          <t>CW32</t>
         </is>
       </c>
       <c r="G158" t="inlineStr"/>
@@ -5364,7 +5360,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>74348</t>
+          <t>74345</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5373,7 +5369,7 @@
         </is>
       </c>
       <c r="C159" s="2" t="n">
-        <v>45978</v>
+        <v>45986</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -5382,20 +5378,24 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>步步升</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr"/>
+          <t>級測</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>放學後（40mins）</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>74345</t>
+          <t>74331</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="C160" s="2" t="n">
-        <v>45986</v>
+        <v>46008</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -5413,17 +5413,17 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>級測</t>
+          <t>Raz-Kids</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>放學後（40mins）</t>
+          <t>Dead Line 17/12</t>
         </is>
       </c>
     </row>

--- a/homework_data.xlsx
+++ b/homework_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2926,7 +2926,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>73484</t>
+          <t>記事6600</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2944,12 +2944,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>CW19</t>
+          <t>Adjective-preposition phrase WS p.2,3</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -2957,7 +2957,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>記事6607</t>
+          <t>73484</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2975,12 +2975,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>基教 -- RSC</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>WS (submit t lunch)</t>
+          <t>CW19</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -2988,7 +2988,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>記事6600</t>
+          <t>記事6607</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3006,12 +3006,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>基教 -- RSC</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Adjective-preposition phrase WS p.2,3</t>
+          <t>WS (submit t lunch)</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -3236,12 +3236,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>73446</t>
+          <t>73610</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3254,12 +3254,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>做書p.65</t>
+          <t>Grammar WB p.24-25</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3267,7 +3267,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>記事6634</t>
+          <t>73609</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3285,12 +3285,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Bring a glue</t>
+          <t>CW21</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -3298,12 +3298,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>73610</t>
+          <t>73446</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3316,12 +3316,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Grammar WB p.24-25</t>
+          <t>做書p.65</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -3329,7 +3329,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>73609</t>
+          <t>記事6634</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3347,12 +3347,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>CW21</t>
+          <t>Bring a glue</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -3360,12 +3360,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>73708</t>
+          <t>73679</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -3378,12 +3378,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>CW22</t>
+          <t>詞解工作紙</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -3391,12 +3391,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>73709</t>
+          <t>73676</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -3409,12 +3409,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>CW22</t>
+          <t>Pre-Vocab Quiz Corr</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -3422,7 +3422,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>73653</t>
+          <t>73672</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3440,12 +3440,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>CW22</t>
+          <t>Dict Corr</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -3453,7 +3453,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>73678</t>
+          <t>73653</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3471,12 +3471,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>WS連File</t>
+          <t>CW22</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -3484,7 +3484,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>73676</t>
+          <t>73678</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3502,12 +3502,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Pre-Vocab Quiz Corr</t>
+          <t>WS連File</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -3515,12 +3515,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>73679</t>
+          <t>73709</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -3533,12 +3533,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>詞解工作紙</t>
+          <t>CW22</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
@@ -3546,12 +3546,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>73672</t>
+          <t>73708</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -3564,12 +3564,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Dict Corr</t>
+          <t>CW22</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
@@ -3608,12 +3608,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>73757</t>
+          <t>73673</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -3626,12 +3626,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>HW 2C</t>
+          <t>WB p.13 17 19</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
@@ -3639,12 +3639,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>73673</t>
+          <t>73757</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -3657,12 +3657,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>WB p.13 17 19</t>
+          <t>HW 2C</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
@@ -3670,7 +3670,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>73767</t>
+          <t>73765</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3688,12 +3688,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Grammar WB p.100-101</t>
+          <t>Lesson WS 3B</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
@@ -3701,7 +3701,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>73766</t>
+          <t>73767</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3719,12 +3719,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>其他z_etc</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Record 2mins presentation in VLE</t>
+          <t>Grammar WB p.100-101</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
@@ -3732,7 +3732,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>73771</t>
+          <t>73766</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3750,12 +3750,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>其他z_etc</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>筆記工作紙及詞解工作紙</t>
+          <t>Record 2mins presentation in VLE</t>
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
@@ -3763,7 +3763,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>73765</t>
+          <t>73772</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Lesson WS 3B</t>
+          <t>Wed Dict 7 TUE Dict 8</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -3794,7 +3794,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>73772</t>
+          <t>73771</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Wed Dict 7 TUE Dict 8</t>
+          <t>筆記工作紙及詞解工作紙</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
@@ -3980,7 +3980,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>73925</t>
+          <t>73923</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3998,12 +3998,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>習作題工作紙</t>
+          <t>UT Revision Paper</t>
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>73922</t>
+          <t>73924</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4060,12 +4060,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>CW24</t>
+          <t>Bring Fact File</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
@@ -4073,7 +4073,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>73923</t>
+          <t>73922</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4091,12 +4091,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>UT Revision Paper</t>
+          <t>CW24</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
@@ -4104,7 +4104,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>73924</t>
+          <t>73925</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4122,12 +4122,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Bring Fact File</t>
+          <t>習作題工作紙</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
@@ -4290,7 +4290,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>74021</t>
+          <t>74023</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4308,12 +4308,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>CW26</t>
+          <t>級測改甲部</t>
         </is>
       </c>
       <c r="G125" t="inlineStr"/>
@@ -4321,7 +4321,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>74022</t>
+          <t>74024</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4339,12 +4339,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>CW26</t>
+          <t>級測改+簽</t>
         </is>
       </c>
       <c r="G126" t="inlineStr"/>
@@ -4352,7 +4352,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>74024</t>
+          <t>74021</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4370,12 +4370,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>級測改+簽</t>
+          <t>CW26</t>
         </is>
       </c>
       <c r="G127" t="inlineStr"/>
@@ -4383,7 +4383,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>74023</t>
+          <t>74022</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4401,12 +4401,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>級測改甲部</t>
+          <t>CW26</t>
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
@@ -4476,7 +4476,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>74182</t>
+          <t>記事6700</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4494,12 +4494,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>普話 -- PTH</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>第一次語文知識驗（VLE）</t>
+          <t>書p.41</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
@@ -4507,7 +4507,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>74174</t>
+          <t>記事6699</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4525,12 +4525,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>LIFE Text Book p.23</t>
+          <t>HW3A</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
@@ -4538,12 +4538,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>74190</t>
+          <t>記事6698</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2025-11-11</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -4556,12 +4556,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>HW 3A</t>
+          <t>明日圖書課，自行集隊（12:55）</t>
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
@@ -4569,7 +4569,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>記事6699</t>
+          <t>74174</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4587,12 +4587,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>HW3A</t>
+          <t>LIFE Text Book p.23</t>
         </is>
       </c>
       <c r="G134" t="inlineStr"/>
@@ -4600,7 +4600,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>記事6700</t>
+          <t>74182</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4618,12 +4618,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>普話 -- PTH</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>書p.41</t>
+          <t>第一次語文知識驗（VLE）</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
@@ -4631,12 +4631,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>記事6698</t>
+          <t>74190</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-11-11</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -4649,12 +4649,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>明日圖書課，自行集隊（12:55）</t>
+          <t>HW 3A</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
@@ -4662,7 +4662,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>記事6707</t>
+          <t>74211</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4680,12 +4680,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Bring LIFE Booklet</t>
+          <t>CW30</t>
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
@@ -4693,7 +4693,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>74212</t>
+          <t>記事6707</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>TSA Reading Comprehension BK #3</t>
+          <t>Bring LIFE Booklet</t>
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
@@ -4724,7 +4724,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>74211</t>
+          <t>74212</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4742,12 +4742,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>CW30</t>
+          <t>TSA Reading Comprehension BK #3</t>
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>74244</t>
+          <t>74243</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4773,12 +4773,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Grammar WB p.58</t>
+          <t>CW31</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
@@ -4786,7 +4786,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>74242</t>
+          <t>74240</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4804,12 +4804,12 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>明成語小測 41-60 + 創默 《憫農 · 其二》</t>
+          <t>Textbook p.91</t>
         </is>
       </c>
       <c r="G141" t="inlineStr"/>
@@ -4817,7 +4817,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>74239</t>
+          <t>74242</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4835,12 +4835,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Textbook p.91</t>
+          <t>明成語小測 41-60 + 創默 《憫農 · 其二》</t>
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
@@ -4848,7 +4848,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>74240</t>
+          <t>74244</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4866,12 +4866,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Textbook p.91</t>
+          <t>Grammar WB p.58</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
@@ -4879,7 +4879,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>74243</t>
+          <t>74239</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4897,12 +4897,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>CW31</t>
+          <t>Textbook p.91</t>
         </is>
       </c>
       <c r="G144" t="inlineStr"/>
@@ -5201,7 +5201,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>74349</t>
+          <t>74329</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5219,12 +5219,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>木蘭辭話劇</t>
+          <t>CW32</t>
         </is>
       </c>
       <c r="G154" t="inlineStr"/>
@@ -5232,7 +5232,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>74348</t>
+          <t>74332</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5250,12 +5250,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>步步升3</t>
+          <t>Sentence Pattern WS</t>
         </is>
       </c>
       <c r="G155" t="inlineStr"/>
@@ -5263,12 +5263,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>74347</t>
+          <t>74373</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -5281,24 +5281,20 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>評分功課</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>連file</t>
-        </is>
-      </c>
+          <t>Science book report</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>74332</t>
+          <t>74347</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5316,20 +5312,24 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Sentence Pattern WS</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr"/>
+          <t>評分功課</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>連file</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>74329</t>
+          <t>74348</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5347,12 +5347,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>CW32</t>
+          <t>步步升3</t>
         </is>
       </c>
       <c r="G158" t="inlineStr"/>
@@ -5360,7 +5360,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>74345</t>
+          <t>74349</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5369,7 +5369,7 @@
         </is>
       </c>
       <c r="C159" s="2" t="n">
-        <v>45986</v>
+        <v>45978</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -5378,50 +5378,275 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>級測</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>放學後（40mins）</t>
-        </is>
-      </c>
+          <t>木蘭辭話劇</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
+          <t>74385</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>普話 -- PTH</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>語文知識測驗2</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>VLE 10pm</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>74383</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C161" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>數學 -- MATH</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>CW33</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>74382</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="n">
+        <v>45979</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>普話 -- PTH</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>抄書</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>2，8</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>記事6740</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C163" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>英文 -- ENG</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Gramma WB p.129</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>記事6739</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>英文 -- ENG</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Speaking Assessment</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>74345</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>公經社 -- CES</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>級測</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>放學後（40mins）</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>記事6741</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>中文 -- CHIN</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>背默《木蘭辭》1-2段，創默3段</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
           <t>74331</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B167" t="inlineStr">
         <is>
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="C160" s="2" t="n">
+      <c r="C167" s="2" t="n">
         <v>46008</v>
       </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>全班</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
         <is>
           <t>英文 -- ENG</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>Raz-Kids</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>Dead Line 17/12</t>
         </is>

--- a/homework_data.xlsx
+++ b/homework_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G167"/>
+  <dimension ref="A1:G172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -725,7 +725,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>72573</t>
+          <t>72603</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -743,12 +743,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CW05</t>
+          <t>完成工作紙p.2連黃色file交</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -756,7 +756,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>72603</t>
+          <t>72578</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>完成工作紙p.2連黃色file交</t>
+          <t>TSA Listening TSA Test (2015 Ex1&amp;Ex2)(1.2&amp;1.3)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -787,7 +787,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>72578</t>
+          <t>72580</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>TSA Listening TSA Test (2015 Ex1&amp;Ex2)(1.2&amp;1.3)</t>
+          <t>Solid Memory</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -818,7 +818,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>72580</t>
+          <t>72573</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Solid Memory</t>
+          <t>CW05</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -849,7 +849,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>72604</t>
+          <t>72602</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>步步升p.4-5</t>
+          <t>Checking Summer Holiday Workbook</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -880,7 +880,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>72602</t>
+          <t>72604</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Checking Summer Holiday Workbook</t>
+          <t>步步升p.4-5</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -973,7 +973,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>72634</t>
+          <t>72683</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Textbook p.15 (1-4)</t>
+          <t>WS Pt.4</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1004,7 +1004,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>72683</t>
+          <t>72634</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>WS Pt.4</t>
+          <t>Textbook p.15 (1-4)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1035,7 +1035,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>72639</t>
+          <t>72641</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CW06</t>
+          <t>Bring Green file</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1066,7 +1066,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>72641</t>
+          <t>72639</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bring Green file</t>
+          <t>CW06</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1097,7 +1097,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>72642</t>
+          <t>記事6421</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>作業P.1</t>
+          <t>明天帶成語詞典</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>記事6421</t>
+          <t>72642</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>明天帶成語詞典</t>
+          <t>作業P.1</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1159,12 +1159,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>72684</t>
+          <t>72705</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>WB 1A 01</t>
+          <t>Grammar WS P.1-2</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1190,12 +1190,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>記事6449</t>
+          <t>72684</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1208,12 +1208,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>粘貼成語表至詞典</t>
+          <t>WB 1A 01</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1221,7 +1221,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>72707</t>
+          <t>記事6449</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1239,12 +1239,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>CW07</t>
+          <t>粘貼成語表至詞典</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1252,7 +1252,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>72706</t>
+          <t>72707</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1270,12 +1270,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>All the TSA Listening Exercises</t>
+          <t>CW07</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1283,7 +1283,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>72705</t>
+          <t>72706</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Grammar WS P.1-2</t>
+          <t>All the TSA Listening Exercises</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1345,12 +1345,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>72635</t>
+          <t>72746</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Workbook 1A (p.1-2) 星期四交</t>
+          <t>筆記及習作</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1376,7 +1376,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>記事6463</t>
+          <t>72745</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1394,12 +1394,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>音樂 -- MUS</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>完成Music Kingdom練習</t>
+          <t>Finish HW01 as PDF</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1407,7 +1407,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>72745</t>
+          <t>72753</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Finish HW01 as PDF</t>
+          <t>CW07+08</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1438,7 +1438,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>72760</t>
+          <t>72754</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>歷史 -- HIST</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Listening - Skills Check 1</t>
+          <t>明天交介紹</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1469,12 +1469,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>72754</t>
+          <t>72635</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>歷史 -- HIST</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>明天交介紹</t>
+          <t>Workbook 1A (p.1-2) 星期四交</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1500,7 +1500,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>72753</t>
+          <t>記事6463</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1518,12 +1518,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>音樂 -- MUS</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>CW07+08</t>
+          <t>完成Music Kingdom練習</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1531,7 +1531,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>72746</t>
+          <t>72760</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>筆記及習作</t>
+          <t>Listening - Skills Check 1</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1562,7 +1562,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>72845</t>
+          <t>72844</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>歷史 -- HIST</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>書本P.10</t>
+          <t>整個file</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1624,12 +1624,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>72846</t>
+          <t>72785</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1642,12 +1642,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>工作紙P.2</t>
+          <t>HW1A</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1655,12 +1655,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>72844</t>
+          <t>記事6480</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>歷史 -- HIST</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>整個file</t>
+          <t>Bring Listening Book</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1686,12 +1686,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>72785</t>
+          <t>72845</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>HW1A</t>
+          <t>書本P.10</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1748,7 +1748,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>記事6480</t>
+          <t>72789</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bring Listening Book</t>
+          <t>Grammar Workbook P.16-17</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1779,12 +1779,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>72789</t>
+          <t>72846</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -1797,12 +1797,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Grammar Workbook P.16-17</t>
+          <t>工作紙P.2</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2027,12 +2027,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>73074</t>
+          <t>記事6479</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2045,12 +2045,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>30/9 Dictation</t>
+          <t>Form Test 1</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2089,7 +2089,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>73075</t>
+          <t>73074</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Dict Corr</t>
+          <t>30/9 Dictation</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2120,7 +2120,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>73091</t>
+          <t>73075</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2138,12 +2138,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>作業 p.4-5改</t>
+          <t>Dict Corr</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2151,7 +2151,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>73092</t>
+          <t>73089</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>書p.21</t>
+          <t>CW12 #1.c 2.c 3.c 4.c 17.c</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2182,7 +2182,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>73089</t>
+          <t>73092</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2200,12 +2200,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>CW12 #1.c 2.c 3.c 4.c 17.c</t>
+          <t>書p.21</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2213,7 +2213,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>73095</t>
+          <t>73091</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2231,12 +2231,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>普話 -- PTH</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>抄書 28 7</t>
+          <t>作業 p.4-5改</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2244,12 +2244,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>記事6479</t>
+          <t>73095</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2262,12 +2262,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>普話 -- PTH</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Form Test 1</t>
+          <t>抄書 28 7</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2461,7 +2461,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>73192</t>
+          <t>記事6546</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>歷史 -- HIST</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>明交工作紙及VLE</t>
+          <t>Bring Newspaper</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>73194</t>
+          <t>記事6545</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2510,12 +2510,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>書P. 2下</t>
+          <t>Solid Memeroy</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2554,7 +2554,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>記事6546</t>
+          <t>73194</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2572,12 +2572,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Bring Newspaper</t>
+          <t>書P. 2下</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2585,7 +2585,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>記事6545</t>
+          <t>73192</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2603,12 +2603,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>歷史 -- HIST</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Solid Memeroy</t>
+          <t>明交工作紙及VLE</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2616,7 +2616,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>73237</t>
+          <t>73236</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2629,17 +2629,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>全班</t>
+          <t>男生</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Solid Memory</t>
+          <t>CW15</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2647,7 +2647,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>73236</t>
+          <t>73237</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2660,17 +2660,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>男生</t>
+          <t>全班</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>CW15</t>
+          <t>Solid Memory</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2678,12 +2678,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>記事6550</t>
+          <t>73334</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -2696,12 +2696,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Dict</t>
+          <t>步步升2</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2709,12 +2709,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>記事6512</t>
+          <t>記事6550</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -2727,12 +2727,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>共閲圖書匯報+個人匯報</t>
+          <t>Dict</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2740,12 +2740,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>73334</t>
+          <t>記事6512</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>步步升2</t>
+          <t>共閲圖書匯報+個人匯報</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2802,7 +2802,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>73445</t>
+          <t>73443</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Reading Comprehension p.2-5</t>
+          <t>Solid Memory</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2833,7 +2833,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>73442</t>
+          <t>73445</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2851,12 +2851,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>CW18</t>
+          <t>Reading Comprehension p.2-5</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2864,7 +2864,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>73443</t>
+          <t>73442</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2882,12 +2882,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Solid Memory</t>
+          <t>CW18</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -2895,7 +2895,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>73483</t>
+          <t>記事6607</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2913,12 +2913,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>基教 -- RSC</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Tmr Form Test</t>
+          <t>WS (submit t lunch)</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -2988,7 +2988,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>記事6607</t>
+          <t>73483</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3006,12 +3006,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>基教 -- RSC</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>WS (submit t lunch)</t>
+          <t>Tmr Form Test</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -3019,12 +3019,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>記事6612</t>
+          <t>73577</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>HW2B</t>
+          <t>HW 2B</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -3050,7 +3050,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>記事6611</t>
+          <t>73523</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Pre Vocab Quiz</t>
+          <t>Grammar WB p.23</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -3112,7 +3112,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>73523</t>
+          <t>記事6611</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Grammar WB p.23</t>
+          <t>Pre Vocab Quiz</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -3143,12 +3143,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>73577</t>
+          <t>記事6612</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>HW 2B</t>
+          <t>HW2B</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -3236,12 +3236,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>73610</t>
+          <t>73446</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3254,12 +3254,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Grammar WB p.24-25</t>
+          <t>做書p.65</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3267,7 +3267,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>73609</t>
+          <t>記事6634</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3285,12 +3285,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>CW21</t>
+          <t>Bring a glue</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -3298,12 +3298,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>73446</t>
+          <t>73610</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3316,12 +3316,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>做書p.65</t>
+          <t>Grammar WB p.24-25</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -3329,7 +3329,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>記事6634</t>
+          <t>73609</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3347,12 +3347,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Bring a glue</t>
+          <t>CW21</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -3360,12 +3360,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>73679</t>
+          <t>73708</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -3378,12 +3378,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>詞解工作紙</t>
+          <t>CW22</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -3391,12 +3391,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>73676</t>
+          <t>73709</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -3409,12 +3409,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Pre-Vocab Quiz Corr</t>
+          <t>CW22</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -3422,7 +3422,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>73672</t>
+          <t>73653</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3440,12 +3440,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Dict Corr</t>
+          <t>CW22</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -3453,7 +3453,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>73653</t>
+          <t>73678</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3471,12 +3471,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>CW22</t>
+          <t>WS連File</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -3484,7 +3484,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>73678</t>
+          <t>73676</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3502,12 +3502,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>WS連File</t>
+          <t>Pre-Vocab Quiz Corr</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -3515,12 +3515,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>73709</t>
+          <t>73679</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -3533,12 +3533,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>CW22</t>
+          <t>詞解工作紙</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
@@ -3546,12 +3546,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>73708</t>
+          <t>73672</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -3564,12 +3564,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>CW22</t>
+          <t>Dict Corr</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
@@ -3577,12 +3577,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>73756</t>
+          <t>73673</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -3595,12 +3595,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>作業</t>
+          <t>WB p.13 17 19</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
@@ -3608,12 +3608,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>73673</t>
+          <t>73757</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -3626,12 +3626,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>WB p.13 17 19</t>
+          <t>HW 2C</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
@@ -3639,7 +3639,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>73757</t>
+          <t>73756</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3657,12 +3657,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>HW 2C</t>
+          <t>作業</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
@@ -3670,7 +3670,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>73765</t>
+          <t>73772</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3688,12 +3688,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Lesson WS 3B</t>
+          <t>Wed Dict 7 TUE Dict 8</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
@@ -3763,7 +3763,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>73772</t>
+          <t>73771</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Wed Dict 7 TUE Dict 8</t>
+          <t>筆記工作紙及詞解工作紙</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -3794,7 +3794,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>73771</t>
+          <t>73765</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>筆記工作紙及詞解工作紙</t>
+          <t>Lesson WS 3B</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
@@ -3887,12 +3887,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>73824</t>
+          <t>73886</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -3905,12 +3905,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>FT Revison</t>
+          <t>CW 23</t>
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
@@ -3918,12 +3918,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>73886</t>
+          <t>73824</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -3936,12 +3936,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>CW 23</t>
+          <t>FT Revison</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
@@ -3980,7 +3980,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>73923</t>
+          <t>73924</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>UT Revision Paper</t>
+          <t>Bring Fact File</t>
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
@@ -4011,7 +4011,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>73926</t>
+          <t>73922</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4029,12 +4029,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>L7 WS 連File</t>
+          <t>CW24</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>73924</t>
+          <t>73925</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4060,12 +4060,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Bring Fact File</t>
+          <t>習作題工作紙</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
@@ -4073,7 +4073,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>73922</t>
+          <t>73926</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4091,12 +4091,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>CW24</t>
+          <t>L7 WS 連File</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
@@ -4104,7 +4104,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>73925</t>
+          <t>73923</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4122,12 +4122,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>習作題工作紙</t>
+          <t>UT Revision Paper</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
@@ -4197,7 +4197,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>73983</t>
+          <t>73985</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4215,12 +4215,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Bring Fact File</t>
+          <t>UT Paper Corr + Sign</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
@@ -4228,7 +4228,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>73985</t>
+          <t>73983</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4246,12 +4246,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>UT Paper Corr + Sign</t>
+          <t>Bring Fact File</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
@@ -4290,7 +4290,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>74023</t>
+          <t>74021</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4308,12 +4308,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>級測改甲部</t>
+          <t>CW26</t>
         </is>
       </c>
       <c r="G125" t="inlineStr"/>
@@ -4321,7 +4321,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>74024</t>
+          <t>74022</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4339,12 +4339,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>級測改+簽</t>
+          <t>CW26</t>
         </is>
       </c>
       <c r="G126" t="inlineStr"/>
@@ -4352,7 +4352,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>74021</t>
+          <t>74024</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4370,12 +4370,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>CW26</t>
+          <t>級測改+簽</t>
         </is>
       </c>
       <c r="G127" t="inlineStr"/>
@@ -4383,7 +4383,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>74022</t>
+          <t>74023</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4401,12 +4401,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>CW26</t>
+          <t>級測改甲部</t>
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
@@ -4476,12 +4476,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>記事6700</t>
+          <t>74190</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-11-11</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -4494,12 +4494,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>書p.41</t>
+          <t>HW 3A</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
@@ -4507,7 +4507,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>記事6699</t>
+          <t>74182</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4525,12 +4525,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>普話 -- PTH</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>HW3A</t>
+          <t>第一次語文知識驗（VLE）</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
@@ -4538,7 +4538,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>記事6698</t>
+          <t>記事6700</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4556,12 +4556,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>明日圖書課，自行集隊（12:55）</t>
+          <t>書p.41</t>
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
@@ -4569,7 +4569,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>74174</t>
+          <t>記事6698</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4587,12 +4587,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>LIFE Text Book p.23</t>
+          <t>明日圖書課，自行集隊（12:55）</t>
         </is>
       </c>
       <c r="G134" t="inlineStr"/>
@@ -4600,7 +4600,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>74182</t>
+          <t>記事6699</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4618,12 +4618,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>普話 -- PTH</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>第一次語文知識驗（VLE）</t>
+          <t>HW3A</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
@@ -4631,12 +4631,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>74190</t>
+          <t>74174</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2025-11-11</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -4649,12 +4649,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>HW 3A</t>
+          <t>LIFE Text Book p.23</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
@@ -4662,7 +4662,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>74211</t>
+          <t>記事6707</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4680,12 +4680,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>CW30</t>
+          <t>Bring LIFE Booklet</t>
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
@@ -4693,7 +4693,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>記事6707</t>
+          <t>74212</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Bring LIFE Booklet</t>
+          <t>TSA Reading Comprehension BK #3</t>
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
@@ -4724,7 +4724,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>74212</t>
+          <t>74211</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4742,12 +4742,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>TSA Reading Comprehension BK #3</t>
+          <t>CW30</t>
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>74243</t>
+          <t>74240</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4773,12 +4773,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>CW31</t>
+          <t>Textbook p.91</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
@@ -4786,7 +4786,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>74240</t>
+          <t>74239</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4817,7 +4817,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>74242</t>
+          <t>74243</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4835,12 +4835,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>明成語小測 41-60 + 創默 《憫農 · 其二》</t>
+          <t>CW31</t>
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
@@ -4879,7 +4879,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>74239</t>
+          <t>74242</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4897,12 +4897,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Textbook p.91</t>
+          <t>明成語小測 41-60 + 創默 《憫農 · 其二》</t>
         </is>
       </c>
       <c r="G144" t="inlineStr"/>
@@ -4910,12 +4910,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>74278</t>
+          <t>74237</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-11-12</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -4928,12 +4928,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>普話 -- PTH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>聆聽測驗二(4/11)交</t>
+          <t>WB p.33-35</t>
         </is>
       </c>
       <c r="G145" t="inlineStr"/>
@@ -4941,7 +4941,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>74281</t>
+          <t>記事6717</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4959,12 +4959,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>WS 5B p.2.3.5.6</t>
+          <t>作業 p.18-20</t>
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>74282</t>
+          <t>記事6716</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4990,20 +4990,24 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Gramma WB p.59</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr"/>
+          <t>明共閱圖書測驗及個人匯報</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>帶iPad及共閱圖書</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>記事6714</t>
+          <t>記事6715</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5026,15 +5030,19 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Grammar Test</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr"/>
+          <t>Notebook</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Future Tense</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>記事6716</t>
+          <t>記事6714</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5052,24 +5060,20 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>明共閱圖書測驗及個人匯報</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>帶iPad及共閱圖書</t>
-        </is>
-      </c>
+          <t>Grammar Test</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>記事6717</t>
+          <t>74282</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5087,12 +5091,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>作業 p.18-20</t>
+          <t>Gramma WB p.59</t>
         </is>
       </c>
       <c r="G150" t="inlineStr"/>
@@ -5100,12 +5104,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>74237</t>
+          <t>74281</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2025-11-12</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -5118,12 +5122,12 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>WB p.33-35</t>
+          <t>WS 5B p.2.3.5.6</t>
         </is>
       </c>
       <c r="G151" t="inlineStr"/>
@@ -5131,7 +5135,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>記事6715</t>
+          <t>74278</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5149,19 +5153,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>普話 -- PTH</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Notebook</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>Future Tense</t>
-        </is>
-      </c>
+          <t>聆聽測驗二(4/11)交</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5201,12 +5201,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>74329</t>
+          <t>74373</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -5219,12 +5219,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>CW32</t>
+          <t>Science book report</t>
         </is>
       </c>
       <c r="G154" t="inlineStr"/>
@@ -5232,7 +5232,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>74332</t>
+          <t>74329</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5250,12 +5250,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Sentence Pattern WS</t>
+          <t>CW32</t>
         </is>
       </c>
       <c r="G155" t="inlineStr"/>
@@ -5263,12 +5263,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>74373</t>
+          <t>74332</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -5281,12 +5281,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Science book report</t>
+          <t>Sentence Pattern WS</t>
         </is>
       </c>
       <c r="G156" t="inlineStr"/>
@@ -5294,7 +5294,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>74347</t>
+          <t>74349</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5312,24 +5312,20 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>評分功課</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>連file</t>
-        </is>
-      </c>
+          <t>木蘭辭話劇</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>74348</t>
+          <t>74347</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5347,20 +5343,24 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>步步升3</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr"/>
+          <t>評分功課</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>連file</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>74349</t>
+          <t>74348</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>木蘭辭話劇</t>
+          <t>步步升3</t>
         </is>
       </c>
       <c r="G159" t="inlineStr"/>
@@ -5554,16 +5554,16 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>74345</t>
+          <t>74428</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
-        <v>45986</v>
+        <v>45980</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -5572,33 +5572,33 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>級測</t>
+          <t>VLE Ex 5-8</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>放學後（40mins）</t>
+          <t>Ex5-8 Today Ex7-8 Tmr</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>記事6741</t>
+          <t>74430</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
-        <v>45987</v>
+        <v>45980</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>背默《木蘭辭》1-2段，創默3段</t>
+          <t>默書簽名</t>
         </is>
       </c>
       <c r="G166" t="inlineStr"/>
@@ -5620,33 +5620,196 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
+          <t>74429</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="C167" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>英文 -- ENG</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>GB p.131</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>74426</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="n">
+        <v>45980</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>數學 -- MATH</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>HW4A + HW Book Corr</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>記事6744</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>英文 -- ENG</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Listening Test</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>21/11</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>74345</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>公經社 -- CES</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>級測</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>放學後（40mins）</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>記事6741</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>中文 -- CHIN</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>背默《木蘭辭》1-2段，創默3段</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
           <t>74331</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="C167" s="2" t="n">
+      <c r="C172" s="2" t="n">
         <v>46008</v>
       </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>全班</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
         <is>
           <t>英文 -- ENG</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>Raz-Kids</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>Dead Line 17/12</t>
         </is>

--- a/homework_data.xlsx
+++ b/homework_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G172"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3050,7 +3050,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>73523</t>
+          <t>73522</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Grammar WB p.23</t>
+          <t>Notebook</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -3081,7 +3081,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>73522</t>
+          <t>記事6611</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Notebook</t>
+          <t>Pre Vocab Quiz</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -3112,7 +3112,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>記事6611</t>
+          <t>73523</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Pre Vocab Quiz</t>
+          <t>Grammar WB p.23</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -3205,12 +3205,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>記事6599</t>
+          <t>73609</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3223,12 +3223,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Vocab Quiz</t>
+          <t>CW21</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -3236,12 +3236,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>73446</t>
+          <t>73610</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3254,12 +3254,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>做書p.65</t>
+          <t>Grammar WB p.24-25</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3267,12 +3267,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>記事6634</t>
+          <t>記事6599</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Bring a glue</t>
+          <t>Vocab Quiz</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -3298,12 +3298,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>73610</t>
+          <t>73446</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3316,12 +3316,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Grammar WB p.24-25</t>
+          <t>做書p.65</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -3329,7 +3329,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>73609</t>
+          <t>記事6634</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3347,12 +3347,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>CW21</t>
+          <t>Bring a glue</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -3391,12 +3391,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>73709</t>
+          <t>73678</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -3409,12 +3409,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>CW22</t>
+          <t>WS連File</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -3453,12 +3453,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>73678</t>
+          <t>73709</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -3471,12 +3471,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>WS連File</t>
+          <t>CW22</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -3577,12 +3577,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>73673</t>
+          <t>73756</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -3595,12 +3595,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>WB p.13 17 19</t>
+          <t>作業</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
@@ -3608,12 +3608,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>73757</t>
+          <t>73673</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -3626,12 +3626,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>HW 2C</t>
+          <t>WB p.13 17 19</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
@@ -3639,7 +3639,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>73756</t>
+          <t>73757</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3657,12 +3657,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>作業</t>
+          <t>HW 2C</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
@@ -3887,12 +3887,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>73886</t>
+          <t>73824</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -3905,12 +3905,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>CW 23</t>
+          <t>FT Revison</t>
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
@@ -3918,12 +3918,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>73824</t>
+          <t>73886</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -3936,12 +3936,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>FT Revison</t>
+          <t>CW 23</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
@@ -4197,7 +4197,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>73985</t>
+          <t>73984</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4215,12 +4215,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>UT Paper Corr + Sign</t>
+          <t>WB p16, 20</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
@@ -4259,7 +4259,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>73984</t>
+          <t>73985</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4277,12 +4277,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>WB p16, 20</t>
+          <t>UT Paper Corr + Sign</t>
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
@@ -4476,12 +4476,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>74190</t>
+          <t>74182</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2025-11-11</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -4494,12 +4494,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>普話 -- PTH</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>HW 3A</t>
+          <t>第一次語文知識驗（VLE）</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
@@ -4507,12 +4507,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>74182</t>
+          <t>74190</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-11-11</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -4525,12 +4525,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>普話 -- PTH</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>第一次語文知識驗（VLE）</t>
+          <t>HW 3A</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
@@ -4538,7 +4538,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>記事6700</t>
+          <t>記事6698</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4556,12 +4556,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>書p.41</t>
+          <t>明日圖書課，自行集隊（12:55）</t>
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
@@ -4569,7 +4569,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>記事6698</t>
+          <t>記事6699</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4587,12 +4587,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>明日圖書課，自行集隊（12:55）</t>
+          <t>HW3A</t>
         </is>
       </c>
       <c r="G134" t="inlineStr"/>
@@ -4600,7 +4600,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>記事6699</t>
+          <t>記事6700</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4618,12 +4618,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>HW3A</t>
+          <t>書p.41</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
@@ -5166,12 +5166,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>74330</t>
+          <t>74373</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -5184,29 +5184,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Solid Memory</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>1 Exercise 1 Day</t>
-        </is>
-      </c>
+          <t>Science book report</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>74373</t>
+          <t>74329</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -5219,12 +5215,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Science book report</t>
+          <t>CW32</t>
         </is>
       </c>
       <c r="G154" t="inlineStr"/>
@@ -5232,7 +5228,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>74329</t>
+          <t>74330</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5250,15 +5246,19 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>CW32</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr"/>
+          <t>Solid Memory</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>1 Exercise 1 Day</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5294,7 +5294,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>74349</t>
+          <t>74347</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5312,20 +5312,24 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>木蘭辭話劇</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr"/>
+          <t>評分功課</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>連file</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>74347</t>
+          <t>74348</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5343,24 +5347,20 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>評分功課</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>連file</t>
-        </is>
-      </c>
+          <t>步步升3</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>74348</t>
+          <t>74349</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>步步升3</t>
+          <t>木蘭辭話劇</t>
         </is>
       </c>
       <c r="G159" t="inlineStr"/>
@@ -5554,7 +5554,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>74428</t>
+          <t>74430</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5572,24 +5572,20 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>VLE Ex 5-8</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>Ex5-8 Today Ex7-8 Tmr</t>
-        </is>
-      </c>
+          <t>默書簽名</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>74430</t>
+          <t>74429</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5607,12 +5603,12 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>默書簽名</t>
+          <t>GB p.131</t>
         </is>
       </c>
       <c r="G166" t="inlineStr"/>
@@ -5620,7 +5616,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>74429</t>
+          <t>74426</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5638,12 +5634,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>GB p.131</t>
+          <t>HW4A + HW Book Corr</t>
         </is>
       </c>
       <c r="G167" t="inlineStr"/>
@@ -5651,7 +5647,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>74426</t>
+          <t>74428</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5669,25 +5665,29 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>HW4A + HW Book Corr</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr"/>
+          <t>VLE Ex 5-8</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Ex5-8 Today Ex7-8 Tmr</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>記事6744</t>
+          <t>74496</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -5700,33 +5700,29 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Listening Test</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>21/11</t>
-        </is>
-      </c>
+          <t>作文改正</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>74345</t>
+          <t>74497</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
-        <v>45986</v>
+        <v>45982</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -5735,33 +5731,33 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>級測</t>
+          <t>筆記</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>放學後（40mins）</t>
+          <t>兩頁</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>記事6741</t>
+          <t>74498</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
-        <v>45987</v>
+        <v>45982</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -5770,12 +5766,12 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>背默《木蘭辭》1-2段，創默3段</t>
+          <t>作業 p.21</t>
         </is>
       </c>
       <c r="G171" t="inlineStr"/>
@@ -5783,33 +5779,165 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
+          <t>74495</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>英文 -- ENG</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>GB p.133 135-138</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>記事6744</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>英文 -- ENG</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Listening Test</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>21/11</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>74345</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>公經社 -- CES</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>級測</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>放學後（40mins）</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>記事6741</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C175" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>中文 -- CHIN</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>背默《木蘭辭》1-2段，創默3段</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
           <t>74331</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="C172" s="2" t="n">
+      <c r="C176" s="2" t="n">
         <v>46008</v>
       </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>全班</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
         <is>
           <t>英文 -- ENG</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>Raz-Kids</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>Dead Line 17/12</t>
         </is>

--- a/homework_data.xlsx
+++ b/homework_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G176"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -725,7 +725,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>72603</t>
+          <t>72573</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -743,12 +743,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>完成工作紙p.2連黃色file交</t>
+          <t>CW05</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -756,7 +756,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>72578</t>
+          <t>72603</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>TSA Listening TSA Test (2015 Ex1&amp;Ex2)(1.2&amp;1.3)</t>
+          <t>完成工作紙p.2連黃色file交</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -787,7 +787,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>72580</t>
+          <t>72578</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Solid Memory</t>
+          <t>TSA Listening TSA Test (2015 Ex1&amp;Ex2)(1.2&amp;1.3)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -818,7 +818,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>72573</t>
+          <t>72580</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CW05</t>
+          <t>Solid Memory</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -849,7 +849,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>72602</t>
+          <t>72604</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Checking Summer Holiday Workbook</t>
+          <t>步步升p.4-5</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -880,7 +880,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>72604</t>
+          <t>72602</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>步步升p.4-5</t>
+          <t>Checking Summer Holiday Workbook</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -973,7 +973,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>72683</t>
+          <t>72634</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>WS Pt.4</t>
+          <t>Textbook p.15 (1-4)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1004,7 +1004,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>72634</t>
+          <t>72683</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Textbook p.15 (1-4)</t>
+          <t>WS Pt.4</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1035,7 +1035,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>72641</t>
+          <t>72639</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bring Green file</t>
+          <t>CW06</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1066,7 +1066,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>72639</t>
+          <t>72641</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CW06</t>
+          <t>Bring Green file</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1097,7 +1097,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>記事6421</t>
+          <t>72642</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>明天帶成語詞典</t>
+          <t>作業P.1</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>72642</t>
+          <t>記事6421</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>作業P.1</t>
+          <t>明天帶成語詞典</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1159,12 +1159,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>72705</t>
+          <t>72684</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Grammar WS P.1-2</t>
+          <t>WB 1A 01</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1190,12 +1190,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>72684</t>
+          <t>記事6449</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1208,12 +1208,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>WB 1A 01</t>
+          <t>粘貼成語表至詞典</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1221,7 +1221,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>記事6449</t>
+          <t>72707</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1239,12 +1239,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>粘貼成語表至詞典</t>
+          <t>CW07</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1252,7 +1252,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>72707</t>
+          <t>72706</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1270,12 +1270,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>CW07</t>
+          <t>All the TSA Listening Exercises</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1283,7 +1283,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>72706</t>
+          <t>72705</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>All the TSA Listening Exercises</t>
+          <t>Grammar WS P.1-2</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1345,12 +1345,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>72746</t>
+          <t>72635</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>筆記及習作</t>
+          <t>Workbook 1A (p.1-2) 星期四交</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1376,7 +1376,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>72745</t>
+          <t>記事6463</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1394,12 +1394,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>音樂 -- MUS</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Finish HW01 as PDF</t>
+          <t>完成Music Kingdom練習</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1407,7 +1407,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>72753</t>
+          <t>72745</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CW07+08</t>
+          <t>Finish HW01 as PDF</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1438,7 +1438,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>72754</t>
+          <t>72760</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>歷史 -- HIST</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>明天交介紹</t>
+          <t>Listening - Skills Check 1</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1469,12 +1469,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>72635</t>
+          <t>72754</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>歷史 -- HIST</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Workbook 1A (p.1-2) 星期四交</t>
+          <t>明天交介紹</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1500,7 +1500,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>記事6463</t>
+          <t>72753</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1518,12 +1518,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>音樂 -- MUS</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>完成Music Kingdom練習</t>
+          <t>CW07+08</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1531,7 +1531,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>72760</t>
+          <t>72746</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Listening - Skills Check 1</t>
+          <t>筆記及習作</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1562,7 +1562,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>72844</t>
+          <t>72846</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>歷史 -- HIST</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>整個file</t>
+          <t>工作紙P.2</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1655,12 +1655,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>記事6480</t>
+          <t>72844</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>歷史 -- HIST</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bring Listening Book</t>
+          <t>整個file</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1686,12 +1686,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>72845</t>
+          <t>72789</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>書本P.10</t>
+          <t>Grammar Workbook P.16-17</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1717,12 +1717,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>72790</t>
+          <t>72845</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Complete VLE Exercise</t>
+          <t>書本P.10</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1748,7 +1748,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>72789</t>
+          <t>記事6480</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Grammar Workbook P.16-17</t>
+          <t>Bring Listening Book</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1779,12 +1779,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>72846</t>
+          <t>72790</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -1797,12 +1797,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>工作紙P.2</t>
+          <t>Complete VLE Exercise</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1903,12 +1903,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>73077</t>
+          <t>記事6510</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -1921,12 +1921,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>抄成語1-20例子1次</t>
+          <t>Solid Memory Test Next Mon</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -1934,12 +1934,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>記事6510</t>
+          <t>73077</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -1952,12 +1952,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Solid Memory Test Next Mon</t>
+          <t>抄成語1-20例子1次</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -2027,12 +2027,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>記事6479</t>
+          <t>73091</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2045,12 +2045,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Form Test 1</t>
+          <t>作業 p.4-5改</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2058,7 +2058,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>73073</t>
+          <t>73092</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2076,12 +2076,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Writing WS p.3</t>
+          <t>書p.21</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2089,7 +2089,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>73074</t>
+          <t>73094</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>普話 -- PTH</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>30/9 Dictation</t>
+          <t>聆聽測驗1</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2120,7 +2120,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>73075</t>
+          <t>73095</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2138,12 +2138,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>普話 -- PTH</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Dict Corr</t>
+          <t>抄書 28 7</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2151,12 +2151,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>73089</t>
+          <t>記事6479</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>CW12 #1.c 2.c 3.c 4.c 17.c</t>
+          <t>Form Test 1</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2182,7 +2182,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>73092</t>
+          <t>73074</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2200,12 +2200,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>書p.21</t>
+          <t>30/9 Dictation</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2213,7 +2213,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>73091</t>
+          <t>73073</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2231,12 +2231,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>作業 p.4-5改</t>
+          <t>Writing WS p.3</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2244,7 +2244,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>73095</t>
+          <t>73089</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2262,12 +2262,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>普話 -- PTH</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>抄書 28 7</t>
+          <t>CW12 #1.c 2.c 3.c 4.c 17.c</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2275,7 +2275,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>73094</t>
+          <t>73075</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2293,12 +2293,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>普話 -- PTH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>聆聽測驗1</t>
+          <t>Dict Corr</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2306,12 +2306,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>73033</t>
+          <t>73076</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>成語小測+創默</t>
+          <t>WB p.8-p.11</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2337,7 +2337,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>記事6511</t>
+          <t>73033</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2368,12 +2368,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>73076</t>
+          <t>記事6462</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2386,12 +2386,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>WB p.8-p.11</t>
+          <t>成語小測（1-20）+創默《八陣圖》</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2399,12 +2399,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>記事6462</t>
+          <t>記事6511</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>成語小測（1-20）+創默《八陣圖》</t>
+          <t>成語小測+創默</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2430,7 +2430,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>73184</t>
+          <t>73192</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>歷史 -- HIST</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>CW14</t>
+          <t>明交工作紙及VLE</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2461,7 +2461,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>記事6546</t>
+          <t>73184</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Bring Newspaper</t>
+          <t>CW14</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>記事6545</t>
+          <t>73194</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2510,12 +2510,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Solid Memeroy</t>
+          <t>書P. 2下</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2554,7 +2554,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>73194</t>
+          <t>記事6546</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2572,12 +2572,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>書P. 2下</t>
+          <t>Bring Newspaper</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2585,7 +2585,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>73192</t>
+          <t>記事6545</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2603,12 +2603,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>歷史 -- HIST</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>明交工作紙及VLE</t>
+          <t>Solid Memeroy</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2616,7 +2616,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>73236</t>
+          <t>73237</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2629,17 +2629,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>男生</t>
+          <t>全班</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>CW15</t>
+          <t>Solid Memory</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2647,7 +2647,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>73237</t>
+          <t>73236</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2660,17 +2660,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>全班</t>
+          <t>男生</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Solid Memory</t>
+          <t>CW15</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2678,12 +2678,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>73334</t>
+          <t>記事6550</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -2696,12 +2696,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>步步升2</t>
+          <t>Dict</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2709,12 +2709,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>記事6550</t>
+          <t>記事6512</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -2727,12 +2727,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Dict</t>
+          <t>共閲圖書匯報+個人匯報</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2740,12 +2740,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>記事6512</t>
+          <t>73334</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>共閲圖書匯報+個人匯報</t>
+          <t>步步升2</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2833,7 +2833,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>73445</t>
+          <t>73442</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2851,12 +2851,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Reading Comprehension p.2-5</t>
+          <t>CW18</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2864,7 +2864,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>73442</t>
+          <t>73445</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2882,12 +2882,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>CW18</t>
+          <t>Reading Comprehension p.2-5</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -3019,12 +3019,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>73577</t>
+          <t>記事6612</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>HW 2B</t>
+          <t>HW2B</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -3050,7 +3050,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>73522</t>
+          <t>記事6611</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Notebook</t>
+          <t>Pre Vocab Quiz</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -3081,7 +3081,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>記事6611</t>
+          <t>73522</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Pre Vocab Quiz</t>
+          <t>Notebook</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -3143,12 +3143,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>記事6612</t>
+          <t>73577</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>HW2B</t>
+          <t>HW 2B</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -3205,7 +3205,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>73609</t>
+          <t>73610</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3223,12 +3223,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>CW21</t>
+          <t>Grammar WB p.24-25</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -3236,7 +3236,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>73610</t>
+          <t>記事6634</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Grammar WB p.24-25</t>
+          <t>Bring a glue</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3267,12 +3267,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>記事6599</t>
+          <t>73609</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3285,12 +3285,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Vocab Quiz</t>
+          <t>CW21</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -3329,12 +3329,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>記事6634</t>
+          <t>記事6599</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Bring a glue</t>
+          <t>Vocab Quiz</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -3577,12 +3577,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>73756</t>
+          <t>73673</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -3595,12 +3595,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>作業</t>
+          <t>WB p.13 17 19</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
@@ -3608,12 +3608,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>73673</t>
+          <t>73756</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -3626,12 +3626,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>WB p.13 17 19</t>
+          <t>作業</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
@@ -3701,7 +3701,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>73767</t>
+          <t>73771</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3719,12 +3719,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Grammar WB p.100-101</t>
+          <t>筆記工作紙及詞解工作紙</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
@@ -3732,7 +3732,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>73766</t>
+          <t>73767</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3750,12 +3750,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>其他z_etc</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Record 2mins presentation in VLE</t>
+          <t>Grammar WB p.100-101</t>
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
@@ -3763,7 +3763,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>73771</t>
+          <t>73766</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>其他z_etc</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>筆記工作紙及詞解工作紙</t>
+          <t>Record 2mins presentation in VLE</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -3887,12 +3887,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>73824</t>
+          <t>73886</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -3905,12 +3905,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>FT Revison</t>
+          <t>CW 23</t>
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
@@ -3918,12 +3918,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>73886</t>
+          <t>73824</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -3936,12 +3936,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>CW 23</t>
+          <t>FT Revison</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
@@ -3980,7 +3980,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>73924</t>
+          <t>73923</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Bring Fact File</t>
+          <t>UT Revision Paper</t>
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
@@ -4011,7 +4011,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>73922</t>
+          <t>73924</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4029,12 +4029,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>CW24</t>
+          <t>Bring Fact File</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>73925</t>
+          <t>73922</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4060,12 +4060,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>習作題工作紙</t>
+          <t>CW24</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
@@ -4073,7 +4073,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>73926</t>
+          <t>73925</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4091,12 +4091,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>L7 WS 連File</t>
+          <t>習作題工作紙</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
@@ -4104,7 +4104,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>73923</t>
+          <t>73926</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4122,12 +4122,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>UT Revision Paper</t>
+          <t>L7 WS 連File</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
@@ -4476,7 +4476,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>74182</t>
+          <t>74174</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4494,12 +4494,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>普話 -- PTH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>第一次語文知識驗（VLE）</t>
+          <t>LIFE Text Book p.23</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
@@ -4507,12 +4507,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>74190</t>
+          <t>74182</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2025-11-11</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -4525,12 +4525,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>普話 -- PTH</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>HW 3A</t>
+          <t>第一次語文知識驗（VLE）</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
@@ -4538,12 +4538,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>記事6698</t>
+          <t>74190</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-11-11</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -4556,12 +4556,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>明日圖書課，自行集隊（12:55）</t>
+          <t>HW 3A</t>
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
@@ -4631,7 +4631,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>74174</t>
+          <t>記事6698</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4649,12 +4649,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>LIFE Text Book p.23</t>
+          <t>明日圖書課，自行集隊（12:55）</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>74240</t>
+          <t>74239</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4786,7 +4786,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>74239</t>
+          <t>74242</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4804,12 +4804,12 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Textbook p.91</t>
+          <t>明成語小測 41-60 + 創默 《憫農 · 其二》</t>
         </is>
       </c>
       <c r="G141" t="inlineStr"/>
@@ -4817,7 +4817,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>74243</t>
+          <t>74240</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4835,12 +4835,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>CW31</t>
+          <t>Textbook p.91</t>
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
@@ -4879,7 +4879,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>74242</t>
+          <t>74243</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4897,12 +4897,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>明成語小測 41-60 + 創默 《憫農 · 其二》</t>
+          <t>CW31</t>
         </is>
       </c>
       <c r="G144" t="inlineStr"/>
@@ -5166,12 +5166,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>74373</t>
+          <t>74330</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -5184,25 +5184,29 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Science book report</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr"/>
+          <t>Solid Memory</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>1 Exercise 1 Day</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>74329</t>
+          <t>74373</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -5215,12 +5219,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>CW32</t>
+          <t>Science book report</t>
         </is>
       </c>
       <c r="G154" t="inlineStr"/>
@@ -5228,7 +5232,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>74330</t>
+          <t>74332</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5251,19 +5255,15 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Solid Memory</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>1 Exercise 1 Day</t>
-        </is>
-      </c>
+          <t>Sentence Pattern WS</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>74332</t>
+          <t>74329</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5281,12 +5281,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Sentence Pattern WS</t>
+          <t>CW32</t>
         </is>
       </c>
       <c r="G156" t="inlineStr"/>
@@ -5391,7 +5391,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>74385</t>
+          <t>記事6740</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5409,24 +5409,20 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>普話 -- PTH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>語文知識測驗2</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>VLE 10pm</t>
-        </is>
-      </c>
+          <t>Gramma WB p.129</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>74383</t>
+          <t>記事6739</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5444,12 +5440,12 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>CW33</t>
+          <t>Speaking Assessment</t>
         </is>
       </c>
       <c r="G161" t="inlineStr"/>
@@ -5457,7 +5453,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>74382</t>
+          <t>74385</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5480,19 +5476,19 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>抄書</t>
+          <t>語文知識測驗2</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2，8</t>
+          <t>VLE 10pm</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>記事6740</t>
+          <t>74383</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5501,7 +5497,7 @@
         </is>
       </c>
       <c r="C163" s="2" t="n">
-        <v>45980</v>
+        <v>45979</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -5510,12 +5506,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Gramma WB p.129</t>
+          <t>CW33</t>
         </is>
       </c>
       <c r="G163" t="inlineStr"/>
@@ -5523,7 +5519,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>記事6739</t>
+          <t>74382</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5532,7 +5528,7 @@
         </is>
       </c>
       <c r="C164" s="2" t="n">
-        <v>45980</v>
+        <v>45979</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -5541,20 +5537,24 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>普話 -- PTH</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Speaking Assessment</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr"/>
+          <t>抄書</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>2，8</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>74430</t>
+          <t>74426</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5572,12 +5572,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>默書簽名</t>
+          <t>HW4A + HW Book Corr</t>
         </is>
       </c>
       <c r="G165" t="inlineStr"/>
@@ -5585,7 +5585,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>74429</t>
+          <t>74428</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5608,15 +5608,19 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>GB p.131</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr"/>
+          <t>VLE Ex 5-8</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Ex5-8 Today Ex7-8 Tmr</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>74426</t>
+          <t>74429</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5634,12 +5638,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>HW4A + HW Book Corr</t>
+          <t>GB p.131</t>
         </is>
       </c>
       <c r="G167" t="inlineStr"/>
@@ -5647,7 +5651,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>74428</t>
+          <t>74430</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5665,33 +5669,29 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>VLE Ex 5-8</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>Ex5-8 Today Ex7-8 Tmr</t>
-        </is>
-      </c>
+          <t>默書簽名</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>74496</t>
+          <t>74479</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2025-11-19</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
-        <v>45982</v>
+        <v>45981</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -5700,12 +5700,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>作文改正</t>
+          <t>CW34</t>
         </is>
       </c>
       <c r="G169" t="inlineStr"/>
@@ -5713,16 +5713,16 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>74497</t>
+          <t>74481</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2025-11-19</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
-        <v>45982</v>
+        <v>45981</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -5731,33 +5731,29 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>筆記</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>兩頁</t>
-        </is>
-      </c>
+          <t>TSA VLE Ex 5-8</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>74498</t>
+          <t>記事6761</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2025-11-19</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
-        <v>45982</v>
+        <v>45981</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -5766,12 +5762,12 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>作業 p.21</t>
+          <t>Solid Memory + Razkids</t>
         </is>
       </c>
       <c r="G171" t="inlineStr"/>
@@ -5779,16 +5775,16 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>74495</t>
+          <t>記事6760</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2025-11-19</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
-        <v>45982</v>
+        <v>45981</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -5802,7 +5798,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>GB p.133 135-138</t>
+          <t>Speaking Assessment</t>
         </is>
       </c>
       <c r="G172" t="inlineStr"/>
@@ -5810,16 +5806,16 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>記事6744</t>
+          <t>74480</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-11-19</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
-        <v>45982</v>
+        <v>45981</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -5833,28 +5829,24 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Listening Test</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>21/11</t>
-        </is>
-      </c>
+          <t>Dictation Correction</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>74345</t>
+          <t>74478</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-11-19</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
-        <v>45986</v>
+        <v>45981</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -5863,33 +5855,29 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>音樂 -- MUS</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>級測</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>放學後（40mins）</t>
-        </is>
-      </c>
+          <t>創作拍子</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>記事6741</t>
+          <t>74496</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
-        <v>45987</v>
+        <v>45982</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -5903,7 +5891,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>背默《木蘭辭》1-2段，創默3段</t>
+          <t>作文改正</t>
         </is>
       </c>
       <c r="G175" t="inlineStr"/>
@@ -5911,33 +5899,359 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
+          <t>74497</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>中文 -- CHIN</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>筆記</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>兩頁</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>74498</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>地理 -- GEOG</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>作業 p.21</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>74495</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>英文 -- ENG</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>GB p.133 135-138</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>記事6744</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>英文 -- ENG</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Listening Test</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>21/11</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>74345</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>公經社 -- CES</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>級測</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>放學後（40mins）</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>記事6741</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C181" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>中文 -- CHIN</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>背默《木蘭辭》1-2段，創默3段</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>74578</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>中文 -- CHIN</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>詞解工作紙</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>記事6779</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>中文 -- CHIN</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>4/12 級測</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>范圍見VLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>74577</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>英文 -- ENG</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Grammar WS (Adj. -ed &amp; -ing)</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>記事6778</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C185" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>英文 -- ENG</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Grammar Quzi</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
           <t>74331</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="C176" s="2" t="n">
+      <c r="C186" s="2" t="n">
         <v>46008</v>
       </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>全班</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
         <is>
           <t>英文 -- ENG</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>Raz-Kids</t>
         </is>
       </c>
-      <c r="G176" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>Dead Line 17/12</t>
         </is>

--- a/homework_data.xlsx
+++ b/homework_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G186"/>
+  <dimension ref="A1:G194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -725,7 +725,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>72573</t>
+          <t>72603</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -743,12 +743,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CW05</t>
+          <t>完成工作紙p.2連黃色file交</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -756,7 +756,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>72603</t>
+          <t>72578</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>完成工作紙p.2連黃色file交</t>
+          <t>TSA Listening TSA Test (2015 Ex1&amp;Ex2)(1.2&amp;1.3)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -787,7 +787,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>72578</t>
+          <t>72580</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>TSA Listening TSA Test (2015 Ex1&amp;Ex2)(1.2&amp;1.3)</t>
+          <t>Solid Memory</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -818,7 +818,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>72580</t>
+          <t>72573</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Solid Memory</t>
+          <t>CW05</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -849,7 +849,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>72604</t>
+          <t>72602</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>步步升p.4-5</t>
+          <t>Checking Summer Holiday Workbook</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -880,7 +880,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>72602</t>
+          <t>72604</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Checking Summer Holiday Workbook</t>
+          <t>步步升p.4-5</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -973,7 +973,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>72634</t>
+          <t>72683</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Textbook p.15 (1-4)</t>
+          <t>WS Pt.4</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1004,7 +1004,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>72683</t>
+          <t>72634</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>WS Pt.4</t>
+          <t>Textbook p.15 (1-4)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1035,7 +1035,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>72639</t>
+          <t>72641</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CW06</t>
+          <t>Bring Green file</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1066,7 +1066,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>72641</t>
+          <t>72639</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bring Green file</t>
+          <t>CW06</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1097,7 +1097,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>72642</t>
+          <t>記事6421</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>作業P.1</t>
+          <t>明天帶成語詞典</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>記事6421</t>
+          <t>72642</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>明天帶成語詞典</t>
+          <t>作業P.1</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1159,12 +1159,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>72684</t>
+          <t>72705</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>WB 1A 01</t>
+          <t>Grammar WS P.1-2</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1190,12 +1190,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>記事6449</t>
+          <t>72684</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1208,12 +1208,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>粘貼成語表至詞典</t>
+          <t>WB 1A 01</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1221,7 +1221,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>72707</t>
+          <t>記事6449</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1239,12 +1239,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>CW07</t>
+          <t>粘貼成語表至詞典</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1252,7 +1252,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>72706</t>
+          <t>72707</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1270,12 +1270,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>All the TSA Listening Exercises</t>
+          <t>CW07</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1283,7 +1283,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>72705</t>
+          <t>72706</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Grammar WS P.1-2</t>
+          <t>All the TSA Listening Exercises</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1345,12 +1345,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>72635</t>
+          <t>72753</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Workbook 1A (p.1-2) 星期四交</t>
+          <t>CW07+08</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1376,7 +1376,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>記事6463</t>
+          <t>72745</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1394,12 +1394,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>音樂 -- MUS</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>完成Music Kingdom練習</t>
+          <t>Finish HW01 as PDF</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1407,7 +1407,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>72745</t>
+          <t>72754</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>歷史 -- HIST</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Finish HW01 as PDF</t>
+          <t>明天交介紹</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1469,7 +1469,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>72754</t>
+          <t>72746</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>歷史 -- HIST</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>明天交介紹</t>
+          <t>筆記及習作</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1500,7 +1500,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>72753</t>
+          <t>記事6463</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1518,12 +1518,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>音樂 -- MUS</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>CW07+08</t>
+          <t>完成Music Kingdom練習</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1531,12 +1531,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>72746</t>
+          <t>72635</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>筆記及習作</t>
+          <t>Workbook 1A (p.1-2) 星期四交</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1562,12 +1562,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>72846</t>
+          <t>記事6480</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>工作紙P.2</t>
+          <t>Bring Listening Book</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1593,12 +1593,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>72843</t>
+          <t>72790</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1611,12 +1611,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>中文筆記實作</t>
+          <t>Complete VLE Exercise</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>72785</t>
+          <t>72789</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1642,12 +1642,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>HW1A</t>
+          <t>Grammar Workbook P.16-17</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1655,12 +1655,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>72844</t>
+          <t>72785</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>歷史 -- HIST</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>整個file</t>
+          <t>HW1A</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1686,12 +1686,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>72789</t>
+          <t>72846</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Grammar Workbook P.16-17</t>
+          <t>工作紙P.2</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1748,12 +1748,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>記事6480</t>
+          <t>72844</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>歷史 -- HIST</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bring Listening Book</t>
+          <t>整個file</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1779,12 +1779,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>72790</t>
+          <t>72843</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -1797,12 +1797,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Complete VLE Exercise</t>
+          <t>中文筆記實作</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1903,12 +1903,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>記事6510</t>
+          <t>73077</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -1921,12 +1921,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Solid Memory Test Next Mon</t>
+          <t>抄成語1-20例子1次</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -1934,12 +1934,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>73077</t>
+          <t>73027</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -1952,12 +1952,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>抄成語1-20例子1次</t>
+          <t>Listening Book p.18-20</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -1965,7 +1965,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>73027</t>
+          <t>記事6510</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Listening Book p.18-20</t>
+          <t>Solid Memory Test Next Mon</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2027,7 +2027,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>73091</t>
+          <t>73074</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2045,12 +2045,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>作業 p.4-5改</t>
+          <t>30/9 Dictation</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2058,7 +2058,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>73092</t>
+          <t>73073</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2076,12 +2076,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>書p.21</t>
+          <t>Writing WS p.3</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2089,7 +2089,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>73094</t>
+          <t>73089</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>普話 -- PTH</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>聆聽測驗1</t>
+          <t>CW12 #1.c 2.c 3.c 4.c 17.c</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2120,7 +2120,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>73095</t>
+          <t>73091</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2138,12 +2138,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>普話 -- PTH</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>抄書 28 7</t>
+          <t>作業 p.4-5改</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2151,12 +2151,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>記事6479</t>
+          <t>73092</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Form Test 1</t>
+          <t>書p.21</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2182,7 +2182,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>73074</t>
+          <t>73075</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>30/9 Dictation</t>
+          <t>Dict Corr</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2213,7 +2213,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>73073</t>
+          <t>73095</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2231,12 +2231,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>普話 -- PTH</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Writing WS p.3</t>
+          <t>抄書 28 7</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2244,12 +2244,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>73089</t>
+          <t>記事6479</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>CW12 #1.c 2.c 3.c 4.c 17.c</t>
+          <t>Form Test 1</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2275,7 +2275,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>73075</t>
+          <t>73094</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2293,12 +2293,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>普話 -- PTH</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Dict Corr</t>
+          <t>聆聽測驗1</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2306,12 +2306,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>73076</t>
+          <t>73033</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>WB p.8-p.11</t>
+          <t>成語小測+創默</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2337,12 +2337,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>73033</t>
+          <t>記事6462</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>成語小測+創默</t>
+          <t>成語小測（1-20）+創默《八陣圖》</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2368,12 +2368,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>記事6462</t>
+          <t>記事6511</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>成語小測（1-20）+創默《八陣圖》</t>
+          <t>成語小測+創默</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2399,12 +2399,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>記事6511</t>
+          <t>73076</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2417,12 +2417,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>成語小測+創默</t>
+          <t>WB p.8-p.11</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2430,7 +2430,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>73192</t>
+          <t>73196</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>歷史 -- HIST</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>明交工作紙及VLE</t>
+          <t>WS p.5下</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>73194</t>
+          <t>73192</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2510,12 +2510,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>歷史 -- HIST</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>書P. 2下</t>
+          <t>明交工作紙及VLE</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2523,7 +2523,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>73196</t>
+          <t>記事6546</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2541,12 +2541,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>WS p.5下</t>
+          <t>Bring Newspaper</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2554,7 +2554,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>記事6546</t>
+          <t>記事6545</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Bring Newspaper</t>
+          <t>Solid Memeroy</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2585,7 +2585,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>記事6545</t>
+          <t>73194</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2603,12 +2603,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Solid Memeroy</t>
+          <t>書P. 2下</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2678,12 +2678,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>記事6550</t>
+          <t>73334</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -2696,12 +2696,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Dict</t>
+          <t>步步升2</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2740,12 +2740,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>73334</t>
+          <t>記事6550</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -2758,12 +2758,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>步步升2</t>
+          <t>Dict</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2802,7 +2802,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>73443</t>
+          <t>73445</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Solid Memory</t>
+          <t>Reading Comprehension p.2-5</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2833,7 +2833,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>73442</t>
+          <t>73443</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2851,12 +2851,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>CW18</t>
+          <t>Solid Memory</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2864,7 +2864,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>73445</t>
+          <t>73442</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2882,12 +2882,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Reading Comprehension p.2-5</t>
+          <t>CW18</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -3019,12 +3019,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>記事6612</t>
+          <t>73577</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>HW2B</t>
+          <t>HW 2B</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -3050,7 +3050,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>記事6611</t>
+          <t>73523</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Pre Vocab Quiz</t>
+          <t>Grammar WB p.23</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -3112,7 +3112,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>73523</t>
+          <t>記事6612</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3130,12 +3130,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Grammar WB p.23</t>
+          <t>HW2B</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -3143,12 +3143,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>73577</t>
+          <t>記事6611</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3161,12 +3161,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>HW 2B</t>
+          <t>Pre Vocab Quiz</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -3205,12 +3205,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>73610</t>
+          <t>記事6599</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Grammar WB p.24-25</t>
+          <t>Vocab Quiz</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -3236,12 +3236,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>記事6634</t>
+          <t>73446</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3254,12 +3254,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Bring a glue</t>
+          <t>做書p.65</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3267,7 +3267,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>73609</t>
+          <t>記事6634</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3285,12 +3285,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>CW21</t>
+          <t>Bring a glue</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -3298,12 +3298,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>73446</t>
+          <t>73610</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3316,12 +3316,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>做書p.65</t>
+          <t>Grammar WB p.24-25</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -3329,12 +3329,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>記事6599</t>
+          <t>73609</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -3347,12 +3347,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Vocab Quiz</t>
+          <t>CW21</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -3360,12 +3360,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>73708</t>
+          <t>73678</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -3378,12 +3378,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>CW22</t>
+          <t>WS連File</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -3391,12 +3391,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>73678</t>
+          <t>73708</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -3409,12 +3409,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>WS連File</t>
+          <t>CW22</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -3422,12 +3422,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>73653</t>
+          <t>73709</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -3453,12 +3453,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>73709</t>
+          <t>73653</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -3484,7 +3484,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>73676</t>
+          <t>73672</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3502,12 +3502,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Pre-Vocab Quiz Corr</t>
+          <t>Dict Corr</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -3515,7 +3515,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>73679</t>
+          <t>73676</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3533,12 +3533,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>詞解工作紙</t>
+          <t>Pre-Vocab Quiz Corr</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>73672</t>
+          <t>73679</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3564,12 +3564,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Dict Corr</t>
+          <t>詞解工作紙</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
@@ -3608,7 +3608,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>73756</t>
+          <t>73757</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3626,12 +3626,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>作業</t>
+          <t>HW 2C</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
@@ -3639,7 +3639,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>73757</t>
+          <t>73756</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3657,12 +3657,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>HW 2C</t>
+          <t>作業</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
@@ -3825,7 +3825,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>73823</t>
+          <t>73822</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>LIFE p.12</t>
+          <t>FT 1&amp;2 Paper sign+corr</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
@@ -3856,7 +3856,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>73822</t>
+          <t>73823</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3874,12 +3874,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>FT 1&amp;2 Paper sign+corr</t>
+          <t>LIFE p.12</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
@@ -3887,12 +3887,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>73886</t>
+          <t>73824</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -3905,12 +3905,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>CW 23</t>
+          <t>FT Revison</t>
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
@@ -3918,12 +3918,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>73824</t>
+          <t>73886</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -3936,12 +3936,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>FT Revison</t>
+          <t>CW 23</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
@@ -3980,7 +3980,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>73923</t>
+          <t>73924</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>UT Revision Paper</t>
+          <t>Bring Fact File</t>
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
@@ -4011,7 +4011,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>73924</t>
+          <t>73922</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4029,12 +4029,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Bring Fact File</t>
+          <t>CW24</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>73922</t>
+          <t>73925</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4060,12 +4060,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>CW24</t>
+          <t>習作題工作紙</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
@@ -4073,7 +4073,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>73925</t>
+          <t>73926</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4091,12 +4091,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>習作題工作紙</t>
+          <t>L7 WS 連File</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
@@ -4104,7 +4104,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>73926</t>
+          <t>73923</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4122,12 +4122,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>L7 WS 連File</t>
+          <t>UT Revision Paper</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
@@ -4197,7 +4197,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>73984</t>
+          <t>73985</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4215,12 +4215,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>WB p16, 20</t>
+          <t>UT Paper Corr + Sign</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
@@ -4228,7 +4228,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>73983</t>
+          <t>73984</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4246,12 +4246,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Bring Fact File</t>
+          <t>WB p16, 20</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
@@ -4259,7 +4259,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>73985</t>
+          <t>73983</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4277,12 +4277,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>UT Paper Corr + Sign</t>
+          <t>Bring Fact File</t>
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
@@ -4507,7 +4507,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>74182</t>
+          <t>記事6700</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4525,12 +4525,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>普話 -- PTH</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>第一次語文知識驗（VLE）</t>
+          <t>書p.41</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
@@ -4538,12 +4538,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>74190</t>
+          <t>記事6699</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2025-11-11</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -4561,7 +4561,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>HW 3A</t>
+          <t>HW3A</t>
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
@@ -4569,7 +4569,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>記事6699</t>
+          <t>記事6698</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4587,12 +4587,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>HW3A</t>
+          <t>明日圖書課，自行集隊（12:55）</t>
         </is>
       </c>
       <c r="G134" t="inlineStr"/>
@@ -4600,7 +4600,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>記事6700</t>
+          <t>74182</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4618,12 +4618,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>普話 -- PTH</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>書p.41</t>
+          <t>第一次語文知識驗（VLE）</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
@@ -4631,12 +4631,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>記事6698</t>
+          <t>74190</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-11-11</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -4649,12 +4649,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>明日圖書課，自行集隊（12:55）</t>
+          <t>HW 3A</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
@@ -4662,7 +4662,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>記事6707</t>
+          <t>74211</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4680,12 +4680,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Bring LIFE Booklet</t>
+          <t>CW30</t>
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
@@ -4693,7 +4693,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>74212</t>
+          <t>記事6707</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>TSA Reading Comprehension BK #3</t>
+          <t>Bring LIFE Booklet</t>
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
@@ -4724,7 +4724,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>74211</t>
+          <t>74212</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4742,12 +4742,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>CW30</t>
+          <t>TSA Reading Comprehension BK #3</t>
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>74239</t>
+          <t>74240</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4786,7 +4786,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>74242</t>
+          <t>74244</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4804,12 +4804,12 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>明成語小測 41-60 + 創默 《憫農 · 其二》</t>
+          <t>Grammar WB p.58</t>
         </is>
       </c>
       <c r="G141" t="inlineStr"/>
@@ -4817,7 +4817,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>74240</t>
+          <t>74243</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4835,12 +4835,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Textbook p.91</t>
+          <t>CW31</t>
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
@@ -4848,7 +4848,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>74244</t>
+          <t>74242</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4866,12 +4866,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Grammar WB p.58</t>
+          <t>明成語小測 41-60 + 創默 《憫農 · 其二》</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
@@ -4879,7 +4879,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>74243</t>
+          <t>74239</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4897,12 +4897,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>CW31</t>
+          <t>Textbook p.91</t>
         </is>
       </c>
       <c r="G144" t="inlineStr"/>
@@ -4910,12 +4910,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>74237</t>
+          <t>74281</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2025-11-12</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -4928,12 +4928,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>WB p.33-35</t>
+          <t>WS 5B p.2.3.5.6</t>
         </is>
       </c>
       <c r="G145" t="inlineStr"/>
@@ -4941,7 +4941,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>記事6717</t>
+          <t>74282</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4959,12 +4959,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>作業 p.18-20</t>
+          <t>Gramma WB p.59</t>
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>記事6716</t>
+          <t>74278</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4990,24 +4990,20 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>普話 -- PTH</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>明共閱圖書測驗及個人匯報</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>帶iPad及共閱圖書</t>
-        </is>
-      </c>
+          <t>聆聽測驗二(4/11)交</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>記事6715</t>
+          <t>記事6714</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5030,19 +5026,15 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Notebook</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>Future Tense</t>
-        </is>
-      </c>
+          <t>Grammar Test</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>記事6714</t>
+          <t>記事6716</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5060,20 +5052,24 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Grammar Test</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr"/>
+          <t>明共閱圖書測驗及個人匯報</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>帶iPad及共閱圖書</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>74282</t>
+          <t>記事6717</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5091,12 +5087,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Gramma WB p.59</t>
+          <t>作業 p.18-20</t>
         </is>
       </c>
       <c r="G150" t="inlineStr"/>
@@ -5104,12 +5100,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>74281</t>
+          <t>74237</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2025-11-13</t>
+          <t>2025-11-12</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -5122,12 +5118,12 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>WS 5B p.2.3.5.6</t>
+          <t>WB p.33-35</t>
         </is>
       </c>
       <c r="G151" t="inlineStr"/>
@@ -5135,7 +5131,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>74278</t>
+          <t>記事6715</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5153,25 +5149,29 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>普話 -- PTH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>聆聽測驗二(4/11)交</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr"/>
+          <t>Notebook</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Future Tense</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>74330</t>
+          <t>74373</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -5184,29 +5184,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Solid Memory</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>1 Exercise 1 Day</t>
-        </is>
-      </c>
+          <t>Science book report</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>74373</t>
+          <t>74349</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -5219,12 +5215,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Science book report</t>
+          <t>木蘭辭話劇</t>
         </is>
       </c>
       <c r="G154" t="inlineStr"/>
@@ -5232,7 +5228,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>74332</t>
+          <t>74348</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5250,12 +5246,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Sentence Pattern WS</t>
+          <t>步步升3</t>
         </is>
       </c>
       <c r="G155" t="inlineStr"/>
@@ -5263,7 +5259,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>74329</t>
+          <t>74347</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5281,20 +5277,24 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>CW32</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr"/>
+          <t>評分功課</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>連file</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>74347</t>
+          <t>74332</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5312,24 +5312,20 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>評分功課</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>連file</t>
-        </is>
-      </c>
+          <t>Sentence Pattern WS</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>74348</t>
+          <t>74330</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5347,20 +5343,24 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>步步升3</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr"/>
+          <t>Solid Memory</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>1 Exercise 1 Day</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>74349</t>
+          <t>74329</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5378,12 +5378,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>木蘭辭話劇</t>
+          <t>CW32</t>
         </is>
       </c>
       <c r="G159" t="inlineStr"/>
@@ -5391,7 +5391,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>記事6740</t>
+          <t>74382</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5409,20 +5409,24 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>普話 -- PTH</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Gramma WB p.129</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr"/>
+          <t>抄書</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>2，8</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>記事6739</t>
+          <t>74383</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5440,12 +5444,12 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Speaking Assessment</t>
+          <t>CW33</t>
         </is>
       </c>
       <c r="G161" t="inlineStr"/>
@@ -5453,7 +5457,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>74385</t>
+          <t>記事6740</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5471,24 +5475,20 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>普話 -- PTH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>語文知識測驗2</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>VLE 10pm</t>
-        </is>
-      </c>
+          <t>Gramma WB p.129</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>74383</t>
+          <t>記事6739</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5506,12 +5506,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>CW33</t>
+          <t>Speaking Assessment</t>
         </is>
       </c>
       <c r="G163" t="inlineStr"/>
@@ -5519,7 +5519,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>74382</t>
+          <t>74385</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5542,19 +5542,19 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>抄書</t>
+          <t>語文知識測驗2</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2，8</t>
+          <t>VLE 10pm</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>74426</t>
+          <t>74430</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5572,12 +5572,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>HW4A + HW Book Corr</t>
+          <t>默書簽名</t>
         </is>
       </c>
       <c r="G165" t="inlineStr"/>
@@ -5651,7 +5651,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>74430</t>
+          <t>74426</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5669,12 +5669,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>默書簽名</t>
+          <t>HW4A + HW Book Corr</t>
         </is>
       </c>
       <c r="G168" t="inlineStr"/>
@@ -5682,7 +5682,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>74479</t>
+          <t>74481</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5700,12 +5700,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>CW34</t>
+          <t>TSA VLE Ex 5-8</t>
         </is>
       </c>
       <c r="G169" t="inlineStr"/>
@@ -5713,7 +5713,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>74481</t>
+          <t>記事6761</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5736,7 +5736,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>TSA VLE Ex 5-8</t>
+          <t>Solid Memory + Razkids</t>
         </is>
       </c>
       <c r="G170" t="inlineStr"/>
@@ -5744,7 +5744,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>記事6761</t>
+          <t>記事6760</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Solid Memory + Razkids</t>
+          <t>Speaking Assessment</t>
         </is>
       </c>
       <c r="G171" t="inlineStr"/>
@@ -5775,7 +5775,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>記事6760</t>
+          <t>74480</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Speaking Assessment</t>
+          <t>Dictation Correction</t>
         </is>
       </c>
       <c r="G172" t="inlineStr"/>
@@ -5806,7 +5806,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>74480</t>
+          <t>74479</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5824,12 +5824,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Dictation Correction</t>
+          <t>CW34</t>
         </is>
       </c>
       <c r="G173" t="inlineStr"/>
@@ -5868,12 +5868,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>74496</t>
+          <t>記事6744</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2025-11-20</t>
+          <t>2025-11-18</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -5886,20 +5886,24 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>作文改正</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr"/>
+          <t>Listening Test</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>21/11</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>74497</t>
+          <t>74495</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5917,19 +5921,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>筆記</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>兩頁</t>
-        </is>
-      </c>
+          <t>GB p.133 135-138</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5965,7 +5965,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>74495</t>
+          <t>74497</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5983,25 +5983,29 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>GB p.133 135-138</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr"/>
+          <t>筆記</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>兩頁</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>記事6744</t>
+          <t>74496</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-11-20</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -6014,19 +6018,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Listening Test</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>21/11</t>
-        </is>
-      </c>
+          <t>作文改正</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -6097,7 +6097,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>74578</t>
+          <t>74577</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6115,12 +6115,12 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>詞解工作紙</t>
+          <t>Grammar WS (Adj. -ed &amp; -ing)</t>
         </is>
       </c>
       <c r="G182" t="inlineStr"/>
@@ -6128,7 +6128,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>記事6779</t>
+          <t>74578</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6151,19 +6151,15 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>4/12 級測</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>范圍見VLE</t>
-        </is>
-      </c>
+          <t>詞解工作紙</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>74577</t>
+          <t>記事6779</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6181,29 +6177,33 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Grammar WS (Adj. -ed &amp; -ing)</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr"/>
+          <t>4/12 級測</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>范圍見VLE</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>記事6778</t>
+          <t>74611</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2025-11-27</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Grammar Quzi</t>
+          <t>Form Test Sign</t>
         </is>
       </c>
       <c r="G185" t="inlineStr"/>
@@ -6225,33 +6225,281 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
+          <t>記事6778</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>英文 -- ENG</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Grammar Quzi</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>記事6790</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="C187" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>中文 -- CHIN</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>明默 《木蘭辭》p1-3</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>記事6791</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>中文 -- CHIN</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>明默 《木蘭辭》p1-3</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>記事6789</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="C189" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>英文 -- ENG</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Grammar Test Tmr</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>74623</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>地理 -- GEOG</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>TB p.58</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>74622</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="C191" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>地理 -- GEOG</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>HW p.23</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>74621</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>英文 -- ENG</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>WR WS p.9-12</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>74620</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="C193" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>數學 -- MATH</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>WS 5 CP.1-4</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
           <t>74331</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="C186" s="2" t="n">
+      <c r="C194" s="2" t="n">
         <v>46008</v>
       </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>全班</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
         <is>
           <t>英文 -- ENG</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="F194" t="inlineStr">
         <is>
           <t>Raz-Kids</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>Dead Line 17/12</t>
         </is>

--- a/homework_data.xlsx
+++ b/homework_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G194"/>
+  <dimension ref="A1:G198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -725,7 +725,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>72603</t>
+          <t>72573</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -743,12 +743,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>完成工作紙p.2連黃色file交</t>
+          <t>CW05</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -756,7 +756,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>72578</t>
+          <t>72603</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>TSA Listening TSA Test (2015 Ex1&amp;Ex2)(1.2&amp;1.3)</t>
+          <t>完成工作紙p.2連黃色file交</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -787,7 +787,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>72580</t>
+          <t>72578</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Solid Memory</t>
+          <t>TSA Listening TSA Test (2015 Ex1&amp;Ex2)(1.2&amp;1.3)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -818,7 +818,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>72573</t>
+          <t>72580</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CW05</t>
+          <t>Solid Memory</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -849,7 +849,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>72602</t>
+          <t>72604</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Checking Summer Holiday Workbook</t>
+          <t>步步升p.4-5</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -880,7 +880,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>72604</t>
+          <t>72602</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>步步升p.4-5</t>
+          <t>Checking Summer Holiday Workbook</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -973,7 +973,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>72683</t>
+          <t>72639</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>WS Pt.4</t>
+          <t>CW06</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1004,7 +1004,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>72634</t>
+          <t>72683</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Textbook p.15 (1-4)</t>
+          <t>WS Pt.4</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1066,7 +1066,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>72639</t>
+          <t>72634</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1084,12 +1084,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CW06</t>
+          <t>Textbook p.15 (1-4)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1159,12 +1159,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>72705</t>
+          <t>72684</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Grammar WS P.1-2</t>
+          <t>WB 1A 01</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1190,12 +1190,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>72684</t>
+          <t>記事6449</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1208,12 +1208,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>WB 1A 01</t>
+          <t>粘貼成語表至詞典</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1221,7 +1221,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>記事6449</t>
+          <t>72707</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1239,12 +1239,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>粘貼成語表至詞典</t>
+          <t>CW07</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1252,7 +1252,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>72707</t>
+          <t>72706</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1270,12 +1270,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>CW07</t>
+          <t>All the TSA Listening Exercises</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1283,7 +1283,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>72706</t>
+          <t>72705</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>All the TSA Listening Exercises</t>
+          <t>Grammar WS P.1-2</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1345,7 +1345,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>72753</t>
+          <t>72745</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>CW07+08</t>
+          <t>Finish HW01 as PDF</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1376,7 +1376,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>72745</t>
+          <t>72746</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1394,12 +1394,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Finish HW01 as PDF</t>
+          <t>筆記及習作</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1407,7 +1407,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>72754</t>
+          <t>72753</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>歷史 -- HIST</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>明天交介紹</t>
+          <t>CW07+08</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1438,7 +1438,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>72760</t>
+          <t>72754</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>歷史 -- HIST</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Listening - Skills Check 1</t>
+          <t>明天交介紹</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1469,7 +1469,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>72746</t>
+          <t>72760</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>筆記及習作</t>
+          <t>Listening - Skills Check 1</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1562,12 +1562,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>記事6480</t>
+          <t>72846</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Bring Listening Book</t>
+          <t>工作紙P.2</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1593,7 +1593,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>72790</t>
+          <t>記事6480</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Complete VLE Exercise</t>
+          <t>Bring Listening Book</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1624,12 +1624,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>72789</t>
+          <t>72844</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1642,12 +1642,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>歷史 -- HIST</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Grammar Workbook P.16-17</t>
+          <t>整個file</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1655,7 +1655,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>72785</t>
+          <t>72790</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>HW1A</t>
+          <t>Complete VLE Exercise</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1686,12 +1686,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>72846</t>
+          <t>72789</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>工作紙P.2</t>
+          <t>Grammar Workbook P.16-17</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1717,12 +1717,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>72845</t>
+          <t>72785</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>書本P.10</t>
+          <t>HW1A</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1748,7 +1748,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>72844</t>
+          <t>72843</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>歷史 -- HIST</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>整個file</t>
+          <t>中文筆記實作</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1779,7 +1779,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>72843</t>
+          <t>72845</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1797,12 +1797,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>中文筆記實作</t>
+          <t>書本P.10</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1934,7 +1934,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>73027</t>
+          <t>記事6510</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Listening Book p.18-20</t>
+          <t>Solid Memory Test Next Mon</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -1965,7 +1965,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>記事6510</t>
+          <t>73027</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Solid Memory Test Next Mon</t>
+          <t>Listening Book p.18-20</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2027,7 +2027,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>73074</t>
+          <t>73094</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2045,12 +2045,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>普話 -- PTH</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>30/9 Dictation</t>
+          <t>聆聽測驗1</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2058,12 +2058,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>73073</t>
+          <t>記事6479</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2076,12 +2076,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Writing WS p.3</t>
+          <t>Form Test 1</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2089,7 +2089,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>73089</t>
+          <t>73073</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>CW12 #1.c 2.c 3.c 4.c 17.c</t>
+          <t>Writing WS p.3</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2120,7 +2120,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>73091</t>
+          <t>73095</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2138,12 +2138,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>普話 -- PTH</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>作業 p.4-5改</t>
+          <t>抄書 28 7</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2151,7 +2151,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>73092</t>
+          <t>73074</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>書p.21</t>
+          <t>30/9 Dictation</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2182,7 +2182,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>73075</t>
+          <t>73092</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2200,12 +2200,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Dict Corr</t>
+          <t>書p.21</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2213,7 +2213,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>73095</t>
+          <t>73091</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2231,12 +2231,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>普話 -- PTH</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>抄書 28 7</t>
+          <t>作業 p.4-5改</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2244,12 +2244,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>記事6479</t>
+          <t>73089</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Form Test 1</t>
+          <t>CW12 #1.c 2.c 3.c 4.c 17.c</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2275,7 +2275,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>73094</t>
+          <t>73075</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2293,12 +2293,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>普話 -- PTH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>聆聽測驗1</t>
+          <t>Dict Corr</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2306,12 +2306,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>73033</t>
+          <t>73076</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>成語小測+創默</t>
+          <t>WB p.8-p.11</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2368,7 +2368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>記事6511</t>
+          <t>73033</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2399,12 +2399,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>73076</t>
+          <t>記事6511</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2417,12 +2417,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>WB p.8-p.11</t>
+          <t>成語小測+創默</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2430,7 +2430,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>73196</t>
+          <t>73192</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>歷史 -- HIST</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>WS p.5下</t>
+          <t>明交工作紙及VLE</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2461,7 +2461,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>73184</t>
+          <t>73194</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>CW14</t>
+          <t>書P. 2下</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>73192</t>
+          <t>73196</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2510,12 +2510,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>歷史 -- HIST</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>明交工作紙及VLE</t>
+          <t>WS p.5下</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2523,7 +2523,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>記事6546</t>
+          <t>73184</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2541,12 +2541,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Bring Newspaper</t>
+          <t>CW14</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2554,7 +2554,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>記事6545</t>
+          <t>記事6546</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Solid Memeroy</t>
+          <t>Bring Newspaper</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2585,7 +2585,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>73194</t>
+          <t>記事6545</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2603,12 +2603,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>書P. 2下</t>
+          <t>Solid Memeroy</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2678,12 +2678,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>73334</t>
+          <t>記事6550</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -2696,12 +2696,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>步步升2</t>
+          <t>Dict</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2740,12 +2740,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>記事6550</t>
+          <t>73334</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -2758,12 +2758,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Dict</t>
+          <t>步步升2</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2802,7 +2802,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>73445</t>
+          <t>73443</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Reading Comprehension p.2-5</t>
+          <t>Solid Memory</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2833,7 +2833,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>73443</t>
+          <t>73442</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2851,12 +2851,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Solid Memory</t>
+          <t>CW18</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2864,7 +2864,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>73442</t>
+          <t>73445</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2882,12 +2882,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>CW18</t>
+          <t>Reading Comprehension p.2-5</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -3019,12 +3019,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>73577</t>
+          <t>記事6612</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>HW 2B</t>
+          <t>HW2B</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -3050,7 +3050,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>73523</t>
+          <t>記事6611</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Grammar WB p.23</t>
+          <t>Pre Vocab Quiz</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -3112,7 +3112,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>記事6612</t>
+          <t>73523</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3130,12 +3130,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>HW2B</t>
+          <t>Grammar WB p.23</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -3143,12 +3143,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>記事6611</t>
+          <t>73577</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3161,12 +3161,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Pre Vocab Quiz</t>
+          <t>HW 2B</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -3205,12 +3205,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>記事6599</t>
+          <t>73610</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Vocab Quiz</t>
+          <t>Grammar WB p.24-25</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -3236,12 +3236,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>73446</t>
+          <t>73609</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3254,12 +3254,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>做書p.65</t>
+          <t>CW21</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3267,12 +3267,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>記事6634</t>
+          <t>記事6599</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Bring a glue</t>
+          <t>Vocab Quiz</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -3298,12 +3298,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>73610</t>
+          <t>73446</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3316,12 +3316,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Grammar WB p.24-25</t>
+          <t>做書p.65</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -3329,7 +3329,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>73609</t>
+          <t>記事6634</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3347,12 +3347,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>CW21</t>
+          <t>Bring a glue</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -3360,12 +3360,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>73678</t>
+          <t>73709</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -3378,12 +3378,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>WS連File</t>
+          <t>CW22</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -3422,12 +3422,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>73709</t>
+          <t>73653</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -3453,7 +3453,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>73653</t>
+          <t>73678</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3471,12 +3471,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>CW22</t>
+          <t>WS連File</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -3577,12 +3577,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>73673</t>
+          <t>73756</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -3595,12 +3595,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>WB p.13 17 19</t>
+          <t>作業</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
@@ -3639,12 +3639,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>73756</t>
+          <t>73673</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -3657,12 +3657,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>作業</t>
+          <t>WB p.13 17 19</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
@@ -3670,7 +3670,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>73772</t>
+          <t>73767</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3688,12 +3688,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Wed Dict 7 TUE Dict 8</t>
+          <t>Grammar WB p.100-101</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
@@ -3701,7 +3701,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>73771</t>
+          <t>73766</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3719,12 +3719,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>其他z_etc</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>筆記工作紙及詞解工作紙</t>
+          <t>Record 2mins presentation in VLE</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
@@ -3732,7 +3732,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>73767</t>
+          <t>73765</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3750,12 +3750,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Grammar WB p.100-101</t>
+          <t>Lesson WS 3B</t>
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
@@ -3763,7 +3763,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>73766</t>
+          <t>73772</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>其他z_etc</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Record 2mins presentation in VLE</t>
+          <t>Wed Dict 7 TUE Dict 8</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -3794,7 +3794,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>73765</t>
+          <t>73771</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Lesson WS 3B</t>
+          <t>筆記工作紙及詞解工作紙</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
@@ -3825,7 +3825,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>73822</t>
+          <t>73823</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3843,12 +3843,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>FT 1&amp;2 Paper sign+corr</t>
+          <t>LIFE p.12</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
@@ -3856,7 +3856,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>73823</t>
+          <t>73822</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3874,12 +3874,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>LIFE p.12</t>
+          <t>FT 1&amp;2 Paper sign+corr</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
@@ -4197,7 +4197,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>73985</t>
+          <t>73984</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4215,12 +4215,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>UT Paper Corr + Sign</t>
+          <t>WB p16, 20</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
@@ -4228,7 +4228,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>73984</t>
+          <t>73985</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4246,12 +4246,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>WB p16, 20</t>
+          <t>UT Paper Corr + Sign</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
@@ -4290,7 +4290,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>74021</t>
+          <t>74023</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4308,12 +4308,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>CW26</t>
+          <t>級測改甲部</t>
         </is>
       </c>
       <c r="G125" t="inlineStr"/>
@@ -4321,7 +4321,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>74022</t>
+          <t>74024</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4339,12 +4339,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>CW26</t>
+          <t>級測改+簽</t>
         </is>
       </c>
       <c r="G126" t="inlineStr"/>
@@ -4352,7 +4352,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>74024</t>
+          <t>74022</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4370,12 +4370,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>級測改+簽</t>
+          <t>CW26</t>
         </is>
       </c>
       <c r="G127" t="inlineStr"/>
@@ -4383,7 +4383,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>74023</t>
+          <t>74021</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4401,12 +4401,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>級測改甲部</t>
+          <t>CW26</t>
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
@@ -4476,7 +4476,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>74174</t>
+          <t>記事6700</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4494,12 +4494,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>LIFE Text Book p.23</t>
+          <t>書p.41</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
@@ -4507,7 +4507,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>記事6700</t>
+          <t>記事6699</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4525,12 +4525,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>書p.41</t>
+          <t>HW3A</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
@@ -4538,7 +4538,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>記事6699</t>
+          <t>記事6698</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4556,12 +4556,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>HW3A</t>
+          <t>明日圖書課，自行集隊（12:55）</t>
         </is>
       </c>
       <c r="G133" t="inlineStr"/>
@@ -4569,7 +4569,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>記事6698</t>
+          <t>74182</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4587,12 +4587,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>普話 -- PTH</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>明日圖書課，自行集隊（12:55）</t>
+          <t>第一次語文知識驗（VLE）</t>
         </is>
       </c>
       <c r="G134" t="inlineStr"/>
@@ -4600,7 +4600,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>74182</t>
+          <t>74174</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4618,12 +4618,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>普話 -- PTH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>第一次語文知識驗（VLE）</t>
+          <t>LIFE Text Book p.23</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
@@ -4693,7 +4693,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>記事6707</t>
+          <t>74212</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Bring LIFE Booklet</t>
+          <t>TSA Reading Comprehension BK #3</t>
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
@@ -4724,7 +4724,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>74212</t>
+          <t>記事6707</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4747,7 +4747,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>TSA Reading Comprehension BK #3</t>
+          <t>Bring LIFE Booklet</t>
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>74240</t>
+          <t>74244</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4773,12 +4773,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Textbook p.91</t>
+          <t>Grammar WB p.58</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
@@ -4786,7 +4786,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>74244</t>
+          <t>74243</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4804,12 +4804,12 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Grammar WB p.58</t>
+          <t>CW31</t>
         </is>
       </c>
       <c r="G141" t="inlineStr"/>
@@ -4817,7 +4817,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>74243</t>
+          <t>74242</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4835,12 +4835,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>CW31</t>
+          <t>明成語小測 41-60 + 創默 《憫農 · 其二》</t>
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
@@ -4848,7 +4848,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>74242</t>
+          <t>74239</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4866,12 +4866,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>明成語小測 41-60 + 創默 《憫農 · 其二》</t>
+          <t>Textbook p.91</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
@@ -4879,7 +4879,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>74239</t>
+          <t>74240</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4910,7 +4910,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>74281</t>
+          <t>74278</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4928,12 +4928,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>普話 -- PTH</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>WS 5B p.2.3.5.6</t>
+          <t>聆聽測驗二(4/11)交</t>
         </is>
       </c>
       <c r="G145" t="inlineStr"/>
@@ -4941,7 +4941,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>74282</t>
+          <t>記事6714</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Gramma WB p.59</t>
+          <t>Grammar Test</t>
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>74278</t>
+          <t>74281</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4990,12 +4990,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>普話 -- PTH</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>聆聽測驗二(4/11)交</t>
+          <t>WS 5B p.2.3.5.6</t>
         </is>
       </c>
       <c r="G147" t="inlineStr"/>
@@ -5003,7 +5003,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>記事6714</t>
+          <t>74282</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Grammar Test</t>
+          <t>Gramma WB p.59</t>
         </is>
       </c>
       <c r="G148" t="inlineStr"/>
@@ -5034,7 +5034,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>記事6716</t>
+          <t>記事6715</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5052,17 +5052,17 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>明共閱圖書測驗及個人匯報</t>
+          <t>Notebook</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>帶iPad及共閱圖書</t>
+          <t>Future Tense</t>
         </is>
       </c>
     </row>
@@ -5131,7 +5131,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>記事6715</t>
+          <t>記事6716</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5149,29 +5149,29 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Notebook</t>
+          <t>明共閱圖書測驗及個人匯報</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Future Tense</t>
+          <t>帶iPad及共閱圖書</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>74373</t>
+          <t>74349</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-11-14</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>科學 -- SCI</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Science book report</t>
+          <t>木蘭辭話劇</t>
         </is>
       </c>
       <c r="G153" t="inlineStr"/>
@@ -5197,7 +5197,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>74349</t>
+          <t>74348</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>木蘭辭話劇</t>
+          <t>步步升3</t>
         </is>
       </c>
       <c r="G154" t="inlineStr"/>
@@ -5228,7 +5228,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>74348</t>
+          <t>74347</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5246,20 +5246,24 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>公經社 -- CES</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>步步升3</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr"/>
+          <t>評分功課</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>連file</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>74347</t>
+          <t>74332</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5277,24 +5281,20 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>公經社 -- CES</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>評分功課</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>連file</t>
-        </is>
-      </c>
+          <t>Sentence Pattern WS</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>74332</t>
+          <t>74330</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5317,15 +5317,19 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Sentence Pattern WS</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr"/>
+          <t>Solid Memory</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>1 Exercise 1 Day</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>74330</t>
+          <t>74329</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5343,29 +5347,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Solid Memory</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>1 Exercise 1 Day</t>
-        </is>
-      </c>
+          <t>CW32</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>74329</t>
+          <t>74373</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -5378,12 +5378,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>科學 -- SCI</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>CW32</t>
+          <t>Science book report</t>
         </is>
       </c>
       <c r="G159" t="inlineStr"/>
@@ -5391,7 +5391,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>74382</t>
+          <t>74385</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5414,19 +5414,19 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>抄書</t>
+          <t>語文知識測驗2</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2，8</t>
+          <t>VLE 10pm</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>74383</t>
+          <t>記事6739</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5444,12 +5444,12 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>CW33</t>
+          <t>Speaking Assessment</t>
         </is>
       </c>
       <c r="G161" t="inlineStr"/>
@@ -5457,7 +5457,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>記事6740</t>
+          <t>74382</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5475,20 +5475,24 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>普話 -- PTH</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Gramma WB p.129</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr"/>
+          <t>抄書</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>2，8</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>記事6739</t>
+          <t>74383</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5506,12 +5510,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Speaking Assessment</t>
+          <t>CW33</t>
         </is>
       </c>
       <c r="G163" t="inlineStr"/>
@@ -5519,7 +5523,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>74385</t>
+          <t>記事6740</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5537,24 +5541,20 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>普話 -- PTH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>語文知識測驗2</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>VLE 10pm</t>
-        </is>
-      </c>
+          <t>Gramma WB p.129</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>74430</t>
+          <t>74428</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5572,20 +5572,24 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>默書簽名</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr"/>
+          <t>VLE Ex 5-8</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Ex5-8 Today Ex7-8 Tmr</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>74428</t>
+          <t>74429</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5608,19 +5612,15 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>VLE Ex 5-8</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>Ex5-8 Today Ex7-8 Tmr</t>
-        </is>
-      </c>
+          <t>GB p.131</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>74429</t>
+          <t>74426</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5638,12 +5638,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>GB p.131</t>
+          <t>HW4A + HW Book Corr</t>
         </is>
       </c>
       <c r="G167" t="inlineStr"/>
@@ -5651,7 +5651,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>74426</t>
+          <t>74430</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5669,12 +5669,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>HW4A + HW Book Corr</t>
+          <t>默書簽名</t>
         </is>
       </c>
       <c r="G168" t="inlineStr"/>
@@ -5682,7 +5682,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>74481</t>
+          <t>74480</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>TSA VLE Ex 5-8</t>
+          <t>Dictation Correction</t>
         </is>
       </c>
       <c r="G169" t="inlineStr"/>
@@ -5713,7 +5713,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>記事6761</t>
+          <t>74479</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5731,12 +5731,12 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Solid Memory + Razkids</t>
+          <t>CW34</t>
         </is>
       </c>
       <c r="G170" t="inlineStr"/>
@@ -5744,7 +5744,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>記事6760</t>
+          <t>74478</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5762,12 +5762,12 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>音樂 -- MUS</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Speaking Assessment</t>
+          <t>創作拍子</t>
         </is>
       </c>
       <c r="G171" t="inlineStr"/>
@@ -5775,7 +5775,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>74480</t>
+          <t>記事6760</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Dictation Correction</t>
+          <t>Speaking Assessment</t>
         </is>
       </c>
       <c r="G172" t="inlineStr"/>
@@ -5806,7 +5806,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>74479</t>
+          <t>記事6761</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5824,12 +5824,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>CW34</t>
+          <t>Solid Memory + Razkids</t>
         </is>
       </c>
       <c r="G173" t="inlineStr"/>
@@ -5837,7 +5837,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>74478</t>
+          <t>74481</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5855,12 +5855,12 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>音樂 -- MUS</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>創作拍子</t>
+          <t>TSA VLE Ex 5-8</t>
         </is>
       </c>
       <c r="G174" t="inlineStr"/>
@@ -6097,7 +6097,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>74577</t>
+          <t>74578</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -6115,12 +6115,12 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Grammar WS (Adj. -ed &amp; -ing)</t>
+          <t>詞解工作紙</t>
         </is>
       </c>
       <c r="G182" t="inlineStr"/>
@@ -6128,7 +6128,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>74578</t>
+          <t>記事6779</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6151,15 +6151,19 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>詞解工作紙</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr"/>
+          <t>4/12 級測</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>范圍見VLE</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>記事6779</t>
+          <t>74577</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6177,19 +6181,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>4/12 級測</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>范圍見VLE</t>
-        </is>
-      </c>
+          <t>Grammar WS (Adj. -ed &amp; -ing)</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -6225,12 +6225,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>記事6778</t>
+          <t>74620</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2025-11-25</t>
+          <t>2025-11-27</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -6243,12 +6243,12 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>數學 -- MATH</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Grammar Quzi</t>
+          <t>WS 5 CP.1-4</t>
         </is>
       </c>
       <c r="G186" t="inlineStr"/>
@@ -6256,7 +6256,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>記事6790</t>
+          <t>74621</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6274,12 +6274,12 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>明默 《木蘭辭》p1-3</t>
+          <t>WR WS p.9-12</t>
         </is>
       </c>
       <c r="G187" t="inlineStr"/>
@@ -6287,7 +6287,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>記事6791</t>
+          <t>74622</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6305,12 +6305,12 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>中文 -- CHIN</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>明默 《木蘭辭》p1-3</t>
+          <t>HW p.23</t>
         </is>
       </c>
       <c r="G188" t="inlineStr"/>
@@ -6318,7 +6318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>記事6789</t>
+          <t>74623</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6336,12 +6336,12 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>地理 -- GEOG</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Grammar Test Tmr</t>
+          <t>TB p.58</t>
         </is>
       </c>
       <c r="G189" t="inlineStr"/>
@@ -6349,12 +6349,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>74623</t>
+          <t>記事6778</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2025-11-27</t>
+          <t>2025-11-25</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -6367,12 +6367,12 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>TB p.58</t>
+          <t>Grammar Quzi</t>
         </is>
       </c>
       <c r="G190" t="inlineStr"/>
@@ -6380,7 +6380,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>74622</t>
+          <t>記事6791</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6398,12 +6398,12 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>地理 -- GEOG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>HW p.23</t>
+          <t>明默 《木蘭辭》p1-3</t>
         </is>
       </c>
       <c r="G191" t="inlineStr"/>
@@ -6411,7 +6411,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>74621</t>
+          <t>記事6790</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6429,12 +6429,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>英文 -- ENG</t>
+          <t>中文 -- CHIN</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>WR WS p.9-12</t>
+          <t>明默 《木蘭辭》p1-3</t>
         </is>
       </c>
       <c r="G192" t="inlineStr"/>
@@ -6442,7 +6442,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>74620</t>
+          <t>記事6789</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6460,12 +6460,12 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>數學 -- MATH</t>
+          <t>英文 -- ENG</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>WS 5 CP.1-4</t>
+          <t>Grammar Test Tmr</t>
         </is>
       </c>
       <c r="G193" t="inlineStr"/>
@@ -6473,33 +6473,157 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
+          <t>74646</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>公經社 -- CES</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>WS</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>74648</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C195" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>中文 -- CHIN</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>周四級測</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>74647</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>中文 -- CHIN</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>步步升 4</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>74644</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="C197" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>英文 -- ENG</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Reading Comprehension Book U.5-6</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
           <t>74331</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>2025-11-14</t>
         </is>
       </c>
-      <c r="C194" s="2" t="n">
+      <c r="C198" s="2" t="n">
         <v>46008</v>
       </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>全班</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>全班</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
         <is>
           <t>英文 -- ENG</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>Raz-Kids</t>
         </is>
       </c>
-      <c r="G194" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>Dead Line 17/12</t>
         </is>
